--- a/data/hotels_by_city/Dallas/Dallas_shard_653.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_653.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="462">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1306 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r529201767-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>2238423</t>
+  </si>
+  <si>
+    <t>529201767</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Worked well for Stadium visits</t>
+  </si>
+  <si>
+    <t>I always feel a little silly staying in an "extended stay" hotel for a short stay, but we did just that again.  The location worked well for visiting the Rangers' and Cowboys' stadiums.  The room was clean and, given the extended stay intent, had lots of amenities.  The price was reasonable and staff was friendly.  Definitely consider for any length of stay.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r508832977-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>508832977</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Super good</t>
+  </si>
+  <si>
+    <t>A place that i really recommend if you are in the area, rooms are very big and super clean.All the people that are working here are very friendly and helpful.Breakfast in the morning is better than a regular residence inn!!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r492022394-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>492022394</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Great Location - Near the Airport - Courtesy Shuttle</t>
+  </si>
+  <si>
+    <t>Newer Residence Inn. In good condition. Clean and comfortable. Friendly staff. Offers evening meal and breakfast. Indoor pool works well, especially with my grandchildren in tow. Offers easy access to Parking Spot or they provide a shuttle.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r451168307-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>451168307</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful room </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We called for a shuttle from the airport. It came immediately. Hotel was only 8 minutes away. Matthew Christian checked us in and gave us a free upgrade. He gave us ideas for dinner and told us about the free Happy Hour at 6.Our room was a gorgeous 2 bedroom 2 bathroom unit that we could have lived in! The king size bed gave us a great sleep. We ordered a shuttle for the early morning trip to the airport. Service at this hotel was excellent. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r448627297-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>448627297</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Only stayed for 1 night. However, this was a very good hotel. Room was huge - separated bed and sitting area, with kitchen. Was also very modern - much better than some other Residence Inns I have stayed at. Location couldn't be better for access to DFW. A special mention for the staff - I lost a camera tripod on my trip, and when passing by 1 week later decided to ask if it has been found. Indeed, it had been dropped in the room and set aside for me. . It was</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r447633838-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>447633838</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Mid-Holiday Trip</t>
+  </si>
+  <si>
+    <t>This is a very nice, relatively new hotel.  The rooms are quite spacious - we had a two bedroom for a family of 4 for a period of 4 days and had plenty of room for all of us.  Nearly a full size 'fridge and a decent size kitchen allowed us to cook some meals and make sandwiches for the day trips. The salt water pool was nice and warm and the outdoor fire pit was a very nice touch in the evenings. The hotel is very close to the airport and the major roadways making it easier to get around the entire DFW area.  The hotel is close to the highway so you may want to request an odd-numbered room since the even numbered rooms face the highway. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very nice, relatively new hotel.  The rooms are quite spacious - we had a two bedroom for a family of 4 for a period of 4 days and had plenty of room for all of us.  Nearly a full size 'fridge and a decent size kitchen allowed us to cook some meals and make sandwiches for the day trips. The salt water pool was nice and warm and the outdoor fire pit was a very nice touch in the evenings. The hotel is very close to the airport and the major roadways making it easier to get around the entire DFW area.  The hotel is close to the highway so you may want to request an odd-numbered room since the even numbered rooms face the highway. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r421882267-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>421882267</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Nice change!</t>
+  </si>
+  <si>
+    <t>I had to relocate from another property (Residence Inn) so decided to give this one a try. It's very close to FSI (approximately five minutes away), has all the amenities I need, and the rooms are much nicer. Matt, at the front desk, was extremely helpful in ensuring I had a quite and spacious room. Thanks, Brother!Will definitely choose this property in future for my travel needs whilst transiting DFW. The rental car return is just around the corner. Couldn't ask for a more painless location!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r420007932-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>420007932</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>B Edwards</t>
+  </si>
+  <si>
+    <t>The breakfast eggs were excellent both mornings. We do not eat bacon or other pork and they were in the same dish with eggs.  Attendant was very helpful and served eggs from the kitchen.  Thank you.  Room was recently remodeled and clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r412035814-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>412035814</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Concert weekend</t>
+  </si>
+  <si>
+    <t>We booked two rooms for the weekend for a concert at the Cowboys Stadium. Surprised that both rooms had huge seating area and two full bedrooms and bathrooms. Also a kitchen with all you need to cook...pots and pans and silverware. Only complaint was we wanted a high floor, and had second floor given to us. Was a bit noisy but not a problem. Staff very friendly . A really well done breakfast buffet  each morning . Also a shuttle to and from Airport. Nice place and very clean ! Would have given five stars .. But neighbors above us really noisy.  Otherwise a great place. And many good places to eat close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>We booked two rooms for the weekend for a concert at the Cowboys Stadium. Surprised that both rooms had huge seating area and two full bedrooms and bathrooms. Also a kitchen with all you need to cook...pots and pans and silverware. Only complaint was we wanted a high floor, and had second floor given to us. Was a bit noisy but not a problem. Staff very friendly . A really well done breakfast buffet  each morning . Also a shuttle to and from Airport. Nice place and very clean ! Would have given five stars .. But neighbors above us really noisy.  Otherwise a great place. And many good places to eat close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r366313558-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>366313558</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>I requested a 4am wakeup call, phone rang at 2:45 and again at 3.Hot water went out during our stay, couldn't even take a shower.The Guest Information book in my room stated there was a $75.00 pet fee, however I had to pay $100.00It was a nice size room, with everything you'd need.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r363159394-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>363159394</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for one night. We had an early flight and wanted to stay close to the rental car drop off. Only 5 minutes away! Hotel, room, hall, elevators were spotless and very clean. The service of the employees was top notch and very professional. I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r338277107-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>338277107</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t>GREAT SERVICE</t>
+  </si>
+  <si>
+    <t>I was not able to get an upgrade on my room on this trip because my marriott rewards account was not properly coded as platinum; however, the service at this hotel was very good.  I often travel approximately 9-10 months out of the year; this particular property is one of the best that I ever had the priviledge to stay.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r333191960-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>333191960</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Clean, modern, big room</t>
+  </si>
+  <si>
+    <t>I did a stay here for an early flight the next morning. The suite I got had a big living area with kitchen plus a separate bedroom with a king bed. I didn't get to spend enough time there to really give it a full evaluation, but the hotel is relatively new and still in really good condition. There is also no airplane noise here, but there can be a bit of freeway noise. My pick up from the airport upon return was not handled well, but otherwise I had no issues and will probably stay here again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r322129117-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>322129117</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Know where to get the shuttle</t>
+  </si>
+  <si>
+    <t>Know where to get the shuttle - LOWEST level of the airport as the staff does not provide good directions on where to get it. And gave me ten kinds of attitude when I "missed" the shuttle the first time it came around due to their vagueness. And when I ended up on another brand's shuttle (bless their hearts they still took me to my hotel) they gave me attitude upon check-in. And DON'T rely on their guess-timate for shuttle back to the airport. Give yourself plenty of time due to multiple drop-offs. Other than shuttle, horrible welcome at check-in, sleeping staff at check-out, it truly is a very nice (surprisingly nice) hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Sherri S, Manager at Residence Inn Dallas DFW Airport South/Irving, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Know where to get the shuttle - LOWEST level of the airport as the staff does not provide good directions on where to get it. And gave me ten kinds of attitude when I "missed" the shuttle the first time it came around due to their vagueness. And when I ended up on another brand's shuttle (bless their hearts they still took me to my hotel) they gave me attitude upon check-in. And DON'T rely on their guess-timate for shuttle back to the airport. Give yourself plenty of time due to multiple drop-offs. Other than shuttle, horrible welcome at check-in, sleeping staff at check-out, it truly is a very nice (surprisingly nice) hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r309642565-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>309642565</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hotel is one of the best Residence Inn i have visited so far. (Marriott platinum) updatd, clean and big rooms. The breakfast Area and Airport Shuttle was also great. Overall we had a great stay, staff was very supportive getting food for us and providing the crib for our little daughter.One drawback was the noise on top of us, we heard basically every step, nobody's fault, well i guess the builder could better soundproof the fairly new Hotel.  </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r293005425-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>293005425</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Oasis back in the "CUT"</t>
+  </si>
+  <si>
+    <t>Had a workshop here for 4days and must admit, this hotel impressed us all.  Check-In was speedy and the suites really top shelf.  The breakfast was standard Residence Inn, but stocked and the staff performed masterfully.  Consider this my business place of choice when coming to Irving.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r291907520-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>291907520</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel with a greay happy hour</t>
+  </si>
+  <si>
+    <t>The staff was so friendly . They had a great happy hour with free food and drinks . The beds were big and comfy . Super clean ! Would def stay again . In driving distance of six flags over texas and hurricane harbor . Safe area .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r287663482-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>287663482</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Perfect for what we needed other than car being broken into</t>
+  </si>
+  <si>
+    <t>My son's baseball traveled to Dallas for a World Series tournament. This hotel was listed on the tournament website. 
+The Residence Inn had the larger rooms with full size refrigerators and a coin operated laundry room which we needed to wash uniforms.  The daily morning breakfast buffet was a nice bonus and varied day to day as did the evening snacks and wine / beer buffet. The kids enjoyed the s'mores night.
+Overall the Residence Inn is well maintained in the public spaces, and the rooms are clean as well. The front desk has rolls of quarters available to purchase which is more convenient than trying to find a bank. 
+The rooms are spacious (we had 2 room suite) with comfortable bedding and good storage space in the bathroom areas. 
+Housekeeping did a great job. I bought my own trash bags because the ones provided are flimsy, and we were eating in the room quite a bit. 
+The only negative (and it's a biggie) is the lack of parking spots. The Residence Inn and sister property Courtyard share the minuscule parking lot. The spaces left in the evening back up to a highway that overlooks the edge of DFW airport. One night two vehicles were broken into (one of our families) and the back seats were stolen (not the iPads, wallets, etc). The hotel only offered an apology. There are signs posted to park at your own risk etc, but...My son's baseball traveled to Dallas for a World Series tournament. This hotel was listed on the tournament website. The Residence Inn had the larger rooms with full size refrigerators and a coin operated laundry room which we needed to wash uniforms.  The daily morning breakfast buffet was a nice bonus and varied day to day as did the evening snacks and wine / beer buffet. The kids enjoyed the s'mores night.Overall the Residence Inn is well maintained in the public spaces, and the rooms are clean as well. The front desk has rolls of quarters available to purchase which is more convenient than trying to find a bank. The rooms are spacious (we had 2 room suite) with comfortable bedding and good storage space in the bathroom areas. Housekeeping did a great job. I bought my own trash bags because the ones provided are flimsy, and we were eating in the room quite a bit. The only negative (and it's a biggie) is the lack of parking spots. The Residence Inn and sister property Courtyard share the minuscule parking lot. The spaces left in the evening back up to a highway that overlooks the edge of DFW airport. One night two vehicles were broken into (one of our families) and the back seats were stolen (not the iPads, wallets, etc). The hotel only offered an apology. There are signs posted to park at your own risk etc, but the lack of parking is definitely a problem. Otherwise I would rate this property 4 stars. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sherri S, General Manager at Residence Inn Dallas DFW Airport South/Irving, responded to this reviewResponded July 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2015</t>
+  </si>
+  <si>
+    <t>My son's baseball traveled to Dallas for a World Series tournament. This hotel was listed on the tournament website. 
+The Residence Inn had the larger rooms with full size refrigerators and a coin operated laundry room which we needed to wash uniforms.  The daily morning breakfast buffet was a nice bonus and varied day to day as did the evening snacks and wine / beer buffet. The kids enjoyed the s'mores night.
+Overall the Residence Inn is well maintained in the public spaces, and the rooms are clean as well. The front desk has rolls of quarters available to purchase which is more convenient than trying to find a bank. 
+The rooms are spacious (we had 2 room suite) with comfortable bedding and good storage space in the bathroom areas. 
+Housekeeping did a great job. I bought my own trash bags because the ones provided are flimsy, and we were eating in the room quite a bit. 
+The only negative (and it's a biggie) is the lack of parking spots. The Residence Inn and sister property Courtyard share the minuscule parking lot. The spaces left in the evening back up to a highway that overlooks the edge of DFW airport. One night two vehicles were broken into (one of our families) and the back seats were stolen (not the iPads, wallets, etc). The hotel only offered an apology. There are signs posted to park at your own risk etc, but...My son's baseball traveled to Dallas for a World Series tournament. This hotel was listed on the tournament website. The Residence Inn had the larger rooms with full size refrigerators and a coin operated laundry room which we needed to wash uniforms.  The daily morning breakfast buffet was a nice bonus and varied day to day as did the evening snacks and wine / beer buffet. The kids enjoyed the s'mores night.Overall the Residence Inn is well maintained in the public spaces, and the rooms are clean as well. The front desk has rolls of quarters available to purchase which is more convenient than trying to find a bank. The rooms are spacious (we had 2 room suite) with comfortable bedding and good storage space in the bathroom areas. Housekeeping did a great job. I bought my own trash bags because the ones provided are flimsy, and we were eating in the room quite a bit. The only negative (and it's a biggie) is the lack of parking spots. The Residence Inn and sister property Courtyard share the minuscule parking lot. The spaces left in the evening back up to a highway that overlooks the edge of DFW airport. One night two vehicles were broken into (one of our families) and the back seats were stolen (not the iPads, wallets, etc). The hotel only offered an apology. There are signs posted to park at your own risk etc, but the lack of parking is definitely a problem. Otherwise I would rate this property 4 stars. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r282410389-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>282410389</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Nicely done hotel</t>
+  </si>
+  <si>
+    <t>Great stay at a wonderful hotel! I was pleasantly surprised by this Residence Inn. The property is immaculate. The rooms were well designed in layout and well appointed with good quality beds and linens. I couldn't believe it was so near the airport because it was really quiet and didn't have the appearance of high traffic even though I'm sure it is. Would definitely recommend and stay again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r281973060-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>281973060</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Nice stay, noisy planes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During a three day stay at this hotel, the breakfast was decent and the halls were fairy quiet. The only thing slightly negative I have to stay is I had a room on the first floor near the outside activities which hot pretty noisy. Also, the planes flying by were loud, but there is nothing the staff could do about it so I never complained. Overall, it was a nice stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r278740521-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>278740521</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Residence Inn - DFW Airport</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised.  Our room was large and VERY clean.  The queen bed could have been a lot better.  Breakfast was also good.  The price was good.  Airplanes stopped flying over sometime between 9:30 &amp; 10 pm but started flying over the next morning about 7 am.  The hotel is about 1/2 mile or so from HWY 114. Very quiet. They will start remodeling in October so the general manager said. Would definately stay again.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r263501164-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>263501164</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Having stayed at many hotels on both the north and south side of DFW I have to say this is the best choice and best value option. The location is very close to the airport and their shuttle will quickly pick you up at your terminal. The staff are extremely friendly and make you feel right at home. The rooms are huge and include kitchenette with top appliances, a nice large desk to work on and couch. There is also a well appointed bathroom and good sized closet. I found the bed comfortable and was able to get a good nights sleep. The breakfast is complimentary and has a good selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Having stayed at many hotels on both the north and south side of DFW I have to say this is the best choice and best value option. The location is very close to the airport and their shuttle will quickly pick you up at your terminal. The staff are extremely friendly and make you feel right at home. The rooms are huge and include kitchenette with top appliances, a nice large desk to work on and couch. There is also a well appointed bathroom and good sized closet. I found the bed comfortable and was able to get a good nights sleep. The breakfast is complimentary and has a good selection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r261695175-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>261695175</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay!!</t>
+  </si>
+  <si>
+    <t>I stay here every couple of weeks. It's clean and well managed. Not too much noise from DFW. They hav a friendly staff. You can't go wrong. Special rates are available through Flight Safety if you are here for Flight Safety training.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r257542365-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>257542365</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Weekend in Dallas</t>
+  </si>
+  <si>
+    <t>The room was very spacious, well appointed, the free breakfast was very good, The hotel staff was helpful and very friendly. The drive to downtown Dallas is about 30mins in good weather, Restaurants are just across the freeway with plenty of choices.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r251285009-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>251285009</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Excellent Stay..Nice Room and Good Breakfast</t>
+  </si>
+  <si>
+    <t>Had a very nice room with kitchenette, big desk, fold out couch which we didn't need but nice to know next time if more in party..and loved the huge shower..Breakfast was good..The texas shaped waffles were very cute and tasty..with strawberry jam, whip cream and chocolate chips available..great breakfast..</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r249934968-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>249934968</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>Flying out of DFW?.... GREAT location!</t>
+  </si>
+  <si>
+    <t>This hotel is just across the highway from the Parking Spot -- so when flying out of DFW this is a great location. The room was very clean, nicely decorated and comfortable.The staff was friendly. Breakfast was good.Hotel Parking was free and close to door.Met all of our needs of a place to stay close to the airport parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alex N, General Manager at Residence Inn Dallas DFW Airport South/Irving, responded to this reviewResponded January 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is just across the highway from the Parking Spot -- so when flying out of DFW this is a great location. The room was very clean, nicely decorated and comfortable.The staff was friendly. Breakfast was good.Hotel Parking was free and close to door.Met all of our needs of a place to stay close to the airport parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r247277572-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>247277572</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>Really convenient</t>
+  </si>
+  <si>
+    <t>My family stayed for two days at this hotel. Because it was Christmas, the hotel was not too crowded. We had a really nice room with two TVs. My daughter enjoyed the pool and the breakfast had a nice selection including whole milk which is hard to find at most other hotels. Be careful using the GPS to find the hotel. We were taken to the other side of town but the front desk staff assisted us when we called. It is really close to the airport and car rental building of the airport. What is not great is this hotel shares property with the Courtyard so it's name does not show on some maps. We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family stayed for two days at this hotel. Because it was Christmas, the hotel was not too crowded. We had a really nice room with two TVs. My daughter enjoyed the pool and the breakfast had a nice selection including whole milk which is hard to find at most other hotels. Be careful using the GPS to find the hotel. We were taken to the other side of town but the front desk staff assisted us when we called. It is really close to the airport and car rental building of the airport. What is not great is this hotel shares property with the Courtyard so it's name does not show on some maps. We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r242484915-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>242484915</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Great Airport Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed one night prior to a 5 night vacation.  Room was very nice, the staff very helpful and it's less than 10 mins from the airport.  The feature that I liked was free parking for up to 7 nights and a complimentary shuttle to and from the airport.  If your flying out of DFW and need a nice hotel/parking/shuttle combo this is an excellent choice.  It would be a good hotel option for business travelers coming to Dallas as well. </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r237171871-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>237171871</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Bait and Switch</t>
+  </si>
+  <si>
+    <t>So let's be clear, this review is not just about the hotel but the meeting sales staff too.
+I booked a last minute meeting at this hotel a few weeks ago.  For the most part, the entire weekend they were clueless. The room was good. It was new and freshly appointed which is the heartbreak of this review. I don't like to leave bad reviews.
+Sales Staff - Awful. They have NO clue how to deal with events.  The contract was not properly apportioned and they tried to tack on extra fees. Be forewarned, if you are a meeting event planner, they will bait and switch. Especially if they think you have money.  Be very very careful.  Quote one rate, charge another, tack on ridiculous fees. POOR conflict resolution. I still do not have my bill and read my reviews I do not say anything bad ever so this absolutely had to be a bad hotel.  Worst thing, my set-up was terrible and they put out no skirting and stained, yes stained tablecloths. Don't hold your wedding there unless you want grandma noticing random stains on your tables and keeping her legs crossed because again no skirting.  
+Even for a business type hotel, I can give them this, maybe they don't hold events.  However, they are completely off base and the Sales Department needs extensive training. Comments like, "I'm done here, you can take it up with Marriott Corporate" are...So let's be clear, this review is not just about the hotel but the meeting sales staff too.I booked a last minute meeting at this hotel a few weeks ago.  For the most part, the entire weekend they were clueless. The room was good. It was new and freshly appointed which is the heartbreak of this review. I don't like to leave bad reviews.Sales Staff - Awful. They have NO clue how to deal with events.  The contract was not properly apportioned and they tried to tack on extra fees. Be forewarned, if you are a meeting event planner, they will bait and switch. Especially if they think you have money.  Be very very careful.  Quote one rate, charge another, tack on ridiculous fees. POOR conflict resolution. I still do not have my bill and read my reviews I do not say anything bad ever so this absolutely had to be a bad hotel.  Worst thing, my set-up was terrible and they put out no skirting and stained, yes stained tablecloths. Don't hold your wedding there unless you want grandma noticing random stains on your tables and keeping her legs crossed because again no skirting.  Even for a business type hotel, I can give them this, maybe they don't hold events.  However, they are completely off base and the Sales Department needs extensive training. Comments like, "I'm done here, you can take it up with Marriott Corporate" are not conflict resolution.  Or how about this one, we normally charge $1500 a day for this space, so you should be paying more after the fact even though you were quoted and agreed to $300. We have your credit card..so we'll just charge you what we think you should owe.  To this date, I have yet to get my settlement from this place.  Its ridiculous. Sleeping Room/Accommodations - Friendly, good night desk manager.  Came in late, effortlessly found my reservation.  Morning group not so much. Seemed to be more interested in guarding the breakfast area from people who came in but didn't stay there. Also, breakfast was awful. It was just bad. I cannot say enough about how I don't complain, but this was just not good. I actually skipped and went to McDonald's. They need to step up their meals if they are going to charge over $100 a night. Business Area - Out in the open, sat there patiently waiting to print a packing slip while a mom checked her Facebook for over an hour and let her kid play video games before I could print out my packing slip. Neither printer worked, finally a techie came over and performed magic and it started working again.  Later on I saw someone enduring the same struggle I had.  Boarding pass printer was low on ink.  But it worked.Overall Experience. This hotel is OK but don't hold an event there. And whatever you do, don't mention your income. I currently have a dispute on my card and a letter into Marriott Corporate and no...this will not go away.  I feel sorry for the chain owners here because I feel like they are going to have their meeting rooms dark or if they hold an event, their Sales Director is going to run off the next group. Maybe they just events one time.  Either way the entire hotel is overpriced, disorganized, and needs a lot of coaching.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>So let's be clear, this review is not just about the hotel but the meeting sales staff too.
+I booked a last minute meeting at this hotel a few weeks ago.  For the most part, the entire weekend they were clueless. The room was good. It was new and freshly appointed which is the heartbreak of this review. I don't like to leave bad reviews.
+Sales Staff - Awful. They have NO clue how to deal with events.  The contract was not properly apportioned and they tried to tack on extra fees. Be forewarned, if you are a meeting event planner, they will bait and switch. Especially if they think you have money.  Be very very careful.  Quote one rate, charge another, tack on ridiculous fees. POOR conflict resolution. I still do not have my bill and read my reviews I do not say anything bad ever so this absolutely had to be a bad hotel.  Worst thing, my set-up was terrible and they put out no skirting and stained, yes stained tablecloths. Don't hold your wedding there unless you want grandma noticing random stains on your tables and keeping her legs crossed because again no skirting.  
+Even for a business type hotel, I can give them this, maybe they don't hold events.  However, they are completely off base and the Sales Department needs extensive training. Comments like, "I'm done here, you can take it up with Marriott Corporate" are...So let's be clear, this review is not just about the hotel but the meeting sales staff too.I booked a last minute meeting at this hotel a few weeks ago.  For the most part, the entire weekend they were clueless. The room was good. It was new and freshly appointed which is the heartbreak of this review. I don't like to leave bad reviews.Sales Staff - Awful. They have NO clue how to deal with events.  The contract was not properly apportioned and they tried to tack on extra fees. Be forewarned, if you are a meeting event planner, they will bait and switch. Especially if they think you have money.  Be very very careful.  Quote one rate, charge another, tack on ridiculous fees. POOR conflict resolution. I still do not have my bill and read my reviews I do not say anything bad ever so this absolutely had to be a bad hotel.  Worst thing, my set-up was terrible and they put out no skirting and stained, yes stained tablecloths. Don't hold your wedding there unless you want grandma noticing random stains on your tables and keeping her legs crossed because again no skirting.  Even for a business type hotel, I can give them this, maybe they don't hold events.  However, they are completely off base and the Sales Department needs extensive training. Comments like, "I'm done here, you can take it up with Marriott Corporate" are not conflict resolution.  Or how about this one, we normally charge $1500 a day for this space, so you should be paying more after the fact even though you were quoted and agreed to $300. We have your credit card..so we'll just charge you what we think you should owe.  To this date, I have yet to get my settlement from this place.  Its ridiculous. Sleeping Room/Accommodations - Friendly, good night desk manager.  Came in late, effortlessly found my reservation.  Morning group not so much. Seemed to be more interested in guarding the breakfast area from people who came in but didn't stay there. Also, breakfast was awful. It was just bad. I cannot say enough about how I don't complain, but this was just not good. I actually skipped and went to McDonald's. They need to step up their meals if they are going to charge over $100 a night. Business Area - Out in the open, sat there patiently waiting to print a packing slip while a mom checked her Facebook for over an hour and let her kid play video games before I could print out my packing slip. Neither printer worked, finally a techie came over and performed magic and it started working again.  Later on I saw someone enduring the same struggle I had.  Boarding pass printer was low on ink.  But it worked.Overall Experience. This hotel is OK but don't hold an event there. And whatever you do, don't mention your income. I currently have a dispute on my card and a letter into Marriott Corporate and no...this will not go away.  I feel sorry for the chain owners here because I feel like they are going to have their meeting rooms dark or if they hold an event, their Sales Director is going to run off the next group. Maybe they just events one time.  Either way the entire hotel is overpriced, disorganized, and needs a lot of coaching.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r235900602-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>235900602</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>Very nice, just a few comments to improve the stay.</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night during a business trip. The hotel is clean, fresh, accommodating. Provides a great small dinner meal and adequate breakfast, all complimentary.  My room was missing a blow dryer, the phone on the main room did not work, my key card wasn't properly activated and the internet access was unavailable for a bit. They resolved the issues and were very nice. Free shuttle to the airport, as well. Overall a nice stay, just a few details to work out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r231217673-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>231217673</t>
+  </si>
+  <si>
+    <t>09/27/2014</t>
+  </si>
+  <si>
+    <t>Above Expectations</t>
+  </si>
+  <si>
+    <t>One night stay while attending a Rangers game and flying out of DFW the next morning.  What a pleasant surprise!  The suite has a full kitchen, and everything was perfect.  2 miles to the rental car return so no worries about the busy freeway traffic.  The staff was friendly.  I'm sure the breakfast was good too, but we had an early flight so we couldn't stay.  Don't hesitate to stay here!</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r229191807-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>229191807</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Very Comfortable</t>
+  </si>
+  <si>
+    <t>This is a nice Residence Inn that is convenient to the aiport and freeways to get to downtown Dallas &amp; Ft Worth.  The beds were VERY comfortable and it was clean.  I would also like to mention that the staff is super friendly.  The only reason I give this hotel 4 stars is because the AC is so loud when it comes on, that even my earplugs couldn't drown out the noise which made for restless sleep.  If you don't need to turn the AC on then you will be golden - and maybe it was just our room?  Oh...and the breakfast was nice all 3 mornings.  Nothing fancy but filling and good - they had eggs, breakfast potatoes, biscuits, sausage/bacon, bagels/toast, cereal &amp; fruit.  This is a very reasonable hotel for it's amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a nice Residence Inn that is convenient to the aiport and freeways to get to downtown Dallas &amp; Ft Worth.  The beds were VERY comfortable and it was clean.  I would also like to mention that the staff is super friendly.  The only reason I give this hotel 4 stars is because the AC is so loud when it comes on, that even my earplugs couldn't drown out the noise which made for restless sleep.  If you don't need to turn the AC on then you will be golden - and maybe it was just our room?  Oh...and the breakfast was nice all 3 mornings.  Nothing fancy but filling and good - they had eggs, breakfast potatoes, biscuits, sausage/bacon, bagels/toast, cereal &amp; fruit.  This is a very reasonable hotel for it's amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r224903015-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>224903015</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Extended Business Trip - Dallas, Texas</t>
+  </si>
+  <si>
+    <t>The staff, their support and my womderful surroundings made my in Dallas a great memory.  I stayed two weeks in the Marriott Residence Inn South and found it to be one of the nicest, but most understated extended stay hotels in the area.  The value for the cost of staying, was the most ecconomical I've found in many years.  Top that with the hospitality of the staff...I'll stay there again.Transportation was a non-issue.  They delivered and recovered us from our business commitments, as-well-as our evening meals.  A phenominal breakfast was provided at no additional cost and a social hour with a light meal waws also included in the overall cost of the hotel.  Wonderful facility with great staff.  Thank you all for the Texas hospitality!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>The staff, their support and my womderful surroundings made my in Dallas a great memory.  I stayed two weeks in the Marriott Residence Inn South and found it to be one of the nicest, but most understated extended stay hotels in the area.  The value for the cost of staying, was the most ecconomical I've found in many years.  Top that with the hospitality of the staff...I'll stay there again.Transportation was a non-issue.  They delivered and recovered us from our business commitments, as-well-as our evening meals.  A phenominal breakfast was provided at no additional cost and a social hour with a light meal waws also included in the overall cost of the hotel.  Wonderful facility with great staff.  Thank you all for the Texas hospitality!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r218551016-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>218551016</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Quiet hotel near highways &amp; airport</t>
+  </si>
+  <si>
+    <t>Chose this location based on Trip Advisor reviews and proximity to DFW airport.  The rooms are nicely appointed, hotel staff was friendly and knowledgeable.  Breakfast was better on the weekend than Monday -- the Sat/Sun host made much better coffee.  My family traveled to Dallas, Plano and did lots of shopping in Irving during our three day stay. The biggest plus was the rooms were very quiet even though the hotel is so close to state highways, a turnpike and the airport.  Biggest minus is the parking lot.  it is shared with another hotel and staff members park (saw it with  my own eyes) in the 10-minute check in only spots for hours.  This makes check in difficult especially if you have luggage.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Chose this location based on Trip Advisor reviews and proximity to DFW airport.  The rooms are nicely appointed, hotel staff was friendly and knowledgeable.  Breakfast was better on the weekend than Monday -- the Sat/Sun host made much better coffee.  My family traveled to Dallas, Plano and did lots of shopping in Irving during our three day stay. The biggest plus was the rooms were very quiet even though the hotel is so close to state highways, a turnpike and the airport.  Biggest minus is the parking lot.  it is shared with another hotel and staff members park (saw it with  my own eyes) in the 10-minute check in only spots for hours.  This makes check in difficult especially if you have luggage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r217900680-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>217900680</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Great hotel with superior service</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while visiting both Dallas and Fort Worth. Since we were visiting colleges that were in both cities,  I wanted to find a hotel that would be accessible to all the metroplex had to offer and I stumbled upon this gem.  I had some Marriott reward points so I initially was looking for a Marriott but I was also willing to pay for my stay.  However, this hotel got such good reviews on TA, I decided to give it a try. My husband, 16 year old daughter and her friend were also on the trip and the room we stayed in was a suite that had a king in the bedroom and a queen sofa bed. The room arrangement gave everyone more privacy than if we had just opted for a conventional hotel room arrangement.  Both the sofabed and the king bed were very comfortable, towels were good and water pressure in the shower was excellent (something my husband judges hotels by). The first night we got ready to go to bed and we came up short a few pillows.  After a quick phone call, the pillows were delivered within 3 minutes. The breakfast buffet both mornings was outstanding.  Eggs, toast, bagels, sausage, potatoes, cereal, yogurt, fruit were all very tasty as were the texas shaped make-it-yourself belgian waffles.  The hotel looked new or like it had just been remodeled.  Everything was fresh and very modern.  I...Stayed at this hotel while visiting both Dallas and Fort Worth. Since we were visiting colleges that were in both cities,  I wanted to find a hotel that would be accessible to all the metroplex had to offer and I stumbled upon this gem.  I had some Marriott reward points so I initially was looking for a Marriott but I was also willing to pay for my stay.  However, this hotel got such good reviews on TA, I decided to give it a try. My husband, 16 year old daughter and her friend were also on the trip and the room we stayed in was a suite that had a king in the bedroom and a queen sofa bed. The room arrangement gave everyone more privacy than if we had just opted for a conventional hotel room arrangement.  Both the sofabed and the king bed were very comfortable, towels were good and water pressure in the shower was excellent (something my husband judges hotels by). The first night we got ready to go to bed and we came up short a few pillows.  After a quick phone call, the pillows were delivered within 3 minutes. The breakfast buffet both mornings was outstanding.  Eggs, toast, bagels, sausage, potatoes, cereal, yogurt, fruit were all very tasty as were the texas shaped make-it-yourself belgian waffles.  The hotel looked new or like it had just been remodeled.  Everything was fresh and very modern.  I could certainly see staying at this hotel for business for a week at a time.  It was a very comfortable place and I highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while visiting both Dallas and Fort Worth. Since we were visiting colleges that were in both cities,  I wanted to find a hotel that would be accessible to all the metroplex had to offer and I stumbled upon this gem.  I had some Marriott reward points so I initially was looking for a Marriott but I was also willing to pay for my stay.  However, this hotel got such good reviews on TA, I decided to give it a try. My husband, 16 year old daughter and her friend were also on the trip and the room we stayed in was a suite that had a king in the bedroom and a queen sofa bed. The room arrangement gave everyone more privacy than if we had just opted for a conventional hotel room arrangement.  Both the sofabed and the king bed were very comfortable, towels were good and water pressure in the shower was excellent (something my husband judges hotels by). The first night we got ready to go to bed and we came up short a few pillows.  After a quick phone call, the pillows were delivered within 3 minutes. The breakfast buffet both mornings was outstanding.  Eggs, toast, bagels, sausage, potatoes, cereal, yogurt, fruit were all very tasty as were the texas shaped make-it-yourself belgian waffles.  The hotel looked new or like it had just been remodeled.  Everything was fresh and very modern.  I...Stayed at this hotel while visiting both Dallas and Fort Worth. Since we were visiting colleges that were in both cities,  I wanted to find a hotel that would be accessible to all the metroplex had to offer and I stumbled upon this gem.  I had some Marriott reward points so I initially was looking for a Marriott but I was also willing to pay for my stay.  However, this hotel got such good reviews on TA, I decided to give it a try. My husband, 16 year old daughter and her friend were also on the trip and the room we stayed in was a suite that had a king in the bedroom and a queen sofa bed. The room arrangement gave everyone more privacy than if we had just opted for a conventional hotel room arrangement.  Both the sofabed and the king bed were very comfortable, towels were good and water pressure in the shower was excellent (something my husband judges hotels by). The first night we got ready to go to bed and we came up short a few pillows.  After a quick phone call, the pillows were delivered within 3 minutes. The breakfast buffet both mornings was outstanding.  Eggs, toast, bagels, sausage, potatoes, cereal, yogurt, fruit were all very tasty as were the texas shaped make-it-yourself belgian waffles.  The hotel looked new or like it had just been remodeled.  Everything was fresh and very modern.  I could certainly see staying at this hotel for business for a week at a time.  It was a very comfortable place and I highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r217335323-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>217335323</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel, Beautiful Suite, Would Have Been an Excellent Overall Stay But For the Urine Stained Mattress</t>
+  </si>
+  <si>
+    <t>I chose this hotel after reading several reviews right here on tripadvisor, and being a Marriott member and planning to stay on points this looked to be the perfect hotel for me. The hotel was beautiful, and by Residence Inn standards, this one was near the top. 
+The suite (#406) was just as nicely decorated as the hotel, it was perfectly clean and all appliances and furniture were in relatively new, excellent condition. I was completely satisfied with my suite, the hotel and my stay, and was planning to give this property raving reviews, until just prior to checkout I pulled the bed linen off and discovered a large 3ft x 2ft urine stain on the mattress, plus a smaller one probably 8 inches in diameter. I took photos and showed the on duty manager, who was thoroughly embarrassed and apologetic. Additionally, she returned all of the points I used for my stay.
+Although the urine stained mattress was completely disgusting, when looking at this property as a whole, and how satisfied I was with it prior to discovering the stain, I must give this hotel a "very good" rating, as it is quite beautiful, and I would stay there again (although I'd check my mattress prior to settling in next time).
+ With keen attention to detail by the housekeeping staff (i.e., when changing sheets make sure you look at the actual mattress you're putting clean sheets on to determine...I chose this hotel after reading several reviews right here on tripadvisor, and being a Marriott member and planning to stay on points this looked to be the perfect hotel for me. The hotel was beautiful, and by Residence Inn standards, this one was near the top. The suite (#406) was just as nicely decorated as the hotel, it was perfectly clean and all appliances and furniture were in relatively new, excellent condition. I was completely satisfied with my suite, the hotel and my stay, and was planning to give this property raving reviews, until just prior to checkout I pulled the bed linen off and discovered a large 3ft x 2ft urine stain on the mattress, plus a smaller one probably 8 inches in diameter. I took photos and showed the on duty manager, who was thoroughly embarrassed and apologetic. Additionally, she returned all of the points I used for my stay.Although the urine stained mattress was completely disgusting, when looking at this property as a whole, and how satisfied I was with it prior to discovering the stain, I must give this hotel a "very good" rating, as it is quite beautiful, and I would stay there again (although I'd check my mattress prior to settling in next time). With keen attention to detail by the housekeeping staff (i.e., when changing sheets make sure you look at the actual mattress you're putting clean sheets on to determine if it's suitable for a guest), this hotel will be excellent. I definitely recommend this property for Irving/DFW Airport travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>I chose this hotel after reading several reviews right here on tripadvisor, and being a Marriott member and planning to stay on points this looked to be the perfect hotel for me. The hotel was beautiful, and by Residence Inn standards, this one was near the top. 
+The suite (#406) was just as nicely decorated as the hotel, it was perfectly clean and all appliances and furniture were in relatively new, excellent condition. I was completely satisfied with my suite, the hotel and my stay, and was planning to give this property raving reviews, until just prior to checkout I pulled the bed linen off and discovered a large 3ft x 2ft urine stain on the mattress, plus a smaller one probably 8 inches in diameter. I took photos and showed the on duty manager, who was thoroughly embarrassed and apologetic. Additionally, she returned all of the points I used for my stay.
+Although the urine stained mattress was completely disgusting, when looking at this property as a whole, and how satisfied I was with it prior to discovering the stain, I must give this hotel a "very good" rating, as it is quite beautiful, and I would stay there again (although I'd check my mattress prior to settling in next time).
+ With keen attention to detail by the housekeeping staff (i.e., when changing sheets make sure you look at the actual mattress you're putting clean sheets on to determine...I chose this hotel after reading several reviews right here on tripadvisor, and being a Marriott member and planning to stay on points this looked to be the perfect hotel for me. The hotel was beautiful, and by Residence Inn standards, this one was near the top. The suite (#406) was just as nicely decorated as the hotel, it was perfectly clean and all appliances and furniture were in relatively new, excellent condition. I was completely satisfied with my suite, the hotel and my stay, and was planning to give this property raving reviews, until just prior to checkout I pulled the bed linen off and discovered a large 3ft x 2ft urine stain on the mattress, plus a smaller one probably 8 inches in diameter. I took photos and showed the on duty manager, who was thoroughly embarrassed and apologetic. Additionally, she returned all of the points I used for my stay.Although the urine stained mattress was completely disgusting, when looking at this property as a whole, and how satisfied I was with it prior to discovering the stain, I must give this hotel a "very good" rating, as it is quite beautiful, and I would stay there again (although I'd check my mattress prior to settling in next time). With keen attention to detail by the housekeeping staff (i.e., when changing sheets make sure you look at the actual mattress you're putting clean sheets on to determine if it's suitable for a guest), this hotel will be excellent. I definitely recommend this property for Irving/DFW Airport travelers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r215375842-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>215375842</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>A good representation of Residence Inns. Breakfast and happy hours are good. Lobby comfortable, rooms very nice. No complaints, only compliments. If you need to be near DFW south exit this is not a bad choice. Did have a colleague stay at Embassy Suites across the way, he said it was horrible. Next time he will make his reservations sooner, before the place sells out. This is also a courtyard on the same property as the residence.There is a mall close by and there are plenty of restaurants. We did not utilize the hotel shuttle so I cannot comment on what services they provide.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r215076918-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>215076918</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Fantastic for families!</t>
+  </si>
+  <si>
+    <t>This place is great!  Great floor plan, clean and well designed.  Felt like an upscale experience! Kids loved the suite.  Kitchen was very clean, well equipped and nicely designed. We'll definitely be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r212469222-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>212469222</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>Fantastic hotel and Staff</t>
+  </si>
+  <si>
+    <t>The 3 weeks I spent here were amazing!!! Beautiful rooms very clean.  Quiet atmosphere.  Charles and other shuttle drivers were super cool and informative.  FREE breakfast and happy hour food and drinks Drinks were awesome.  But Employee , Maylene was fabulous!!!!!!!!! Very accompanying!  I will highly recommend this hotel!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r208687412-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>208687412</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Like home!</t>
+  </si>
+  <si>
+    <t>Brought my goddaughters to Dallas from Kansas so we could sightsee and hang out, and this place had a two-bedroom suite so I decided to try it. We were thrilled with this hotel!
+First, it has a full kitchen with dishes, silverware and pots/pans, and they even provide a dishwasher soap cube in case you need it. But they encourage you to leave your dishes in the sink and the maid cleans everything up and turns the dishwasher on for you each day... as well as cleaning the room. We were greeted very warmly when we checked in and asked if we needed help unloading the car. This hotel is literally five minutes from DFW Airport, and I saw a shuttle bus that goes with the hotel, in case you need it. 
+Breakfast is included with the room each day. We had fun making our own waffles and putting whipped cream and nuts and berries on them. We also ate eggs, sausage, potatoes, English muffins, muffins, yogurt with granola, biscuits and gravy, and fruit throughout our stay. The food choices change up a little each day. 
+The suite itself was very clean and had a great set-up. The girls' room was on the opposite side of the living room so I couldn't hear them giggling at night and they couldn't hear me. Of course, they have the firm, comfy Marriott beds in each room. I gave them the king sized...Brought my goddaughters to Dallas from Kansas so we could sightsee and hang out, and this place had a two-bedroom suite so I decided to try it. We were thrilled with this hotel!First, it has a full kitchen with dishes, silverware and pots/pans, and they even provide a dishwasher soap cube in case you need it. But they encourage you to leave your dishes in the sink and the maid cleans everything up and turns the dishwasher on for you each day... as well as cleaning the room. We were greeted very warmly when we checked in and asked if we needed help unloading the car. This hotel is literally five minutes from DFW Airport, and I saw a shuttle bus that goes with the hotel, in case you need it. Breakfast is included with the room each day. We had fun making our own waffles and putting whipped cream and nuts and berries on them. We also ate eggs, sausage, potatoes, English muffins, muffins, yogurt with granola, biscuits and gravy, and fruit throughout our stay. The food choices change up a little each day. The suite itself was very clean and had a great set-up. The girls' room was on the opposite side of the living room so I couldn't hear them giggling at night and they couldn't hear me. Of course, they have the firm, comfy Marriott beds in each room. I gave them the king sized bed and stayed in the room with the queen. Besides a tiny kitchen, there is a table with two comfy chairs, a desk with a swivel chair, and a couch that apparently folds out to make a bed. Seats two easily, three if you like each other. All three rooms had flat screen TV's in them.We used this hotel as a jumping off place to go to the Dallas Zoo and the Aquarium (A MUST!), as well as the JFK Museum. They were all about thirty minutes away. There are also restaurants and the big Irving Mall nearby, with a movie theater.The girls also tried both the indoor pool at our hotel (saltwater) and the outdoor pool at the sister Courtyard Marriott next door. Both were smallish, but not many people were swimming. The air conditioner worked really well. We felt very comfortable the whole time we were there, and safe.Now for a few negatives. There was road noise, as you are on a big highway. I always bring a sound machine with me, so not a problem for me. And the girls didn't notice it at all. I'm a light sleeper. Which is why the blinking light in the smoke detector above the bed drove me nuts each night. I learned to cover my head with the sheets. We did hear airplanes, but not until Sunday.There were no paper towels in the room, but when I called the front desk, they suggested we come get napkins from the coffee area. They are the big fancy serviettes you usually save for parties. We took plenty. There is fancy Paul Mitchell shampoo (3) and conditioner for the shower, but no shower cap or lotion, so bring your own. Both bathrooms in this suite had railings and seats in the tub for handicapped accessibility. My seat was stuck in a 45 degree angle and wouldn't go up or down. Not a problem for me because I only take showers and it was on the last half of the tub. There is a phone in each bathroom, too, in case someone gets into trouble. I did see several people who looked like they were patients coming to Dallas to get medical care. All in all, a fabulous hotel! I asked what the longest is that anyone has stayed there and the front desk staff said 380 days. I can see why. Very comfortable!MoreShow less</t>
+  </si>
+  <si>
+    <t>Brought my goddaughters to Dallas from Kansas so we could sightsee and hang out, and this place had a two-bedroom suite so I decided to try it. We were thrilled with this hotel!
+First, it has a full kitchen with dishes, silverware and pots/pans, and they even provide a dishwasher soap cube in case you need it. But they encourage you to leave your dishes in the sink and the maid cleans everything up and turns the dishwasher on for you each day... as well as cleaning the room. We were greeted very warmly when we checked in and asked if we needed help unloading the car. This hotel is literally five minutes from DFW Airport, and I saw a shuttle bus that goes with the hotel, in case you need it. 
+Breakfast is included with the room each day. We had fun making our own waffles and putting whipped cream and nuts and berries on them. We also ate eggs, sausage, potatoes, English muffins, muffins, yogurt with granola, biscuits and gravy, and fruit throughout our stay. The food choices change up a little each day. 
+The suite itself was very clean and had a great set-up. The girls' room was on the opposite side of the living room so I couldn't hear them giggling at night and they couldn't hear me. Of course, they have the firm, comfy Marriott beds in each room. I gave them the king sized...Brought my goddaughters to Dallas from Kansas so we could sightsee and hang out, and this place had a two-bedroom suite so I decided to try it. We were thrilled with this hotel!First, it has a full kitchen with dishes, silverware and pots/pans, and they even provide a dishwasher soap cube in case you need it. But they encourage you to leave your dishes in the sink and the maid cleans everything up and turns the dishwasher on for you each day... as well as cleaning the room. We were greeted very warmly when we checked in and asked if we needed help unloading the car. This hotel is literally five minutes from DFW Airport, and I saw a shuttle bus that goes with the hotel, in case you need it. Breakfast is included with the room each day. We had fun making our own waffles and putting whipped cream and nuts and berries on them. We also ate eggs, sausage, potatoes, English muffins, muffins, yogurt with granola, biscuits and gravy, and fruit throughout our stay. The food choices change up a little each day. The suite itself was very clean and had a great set-up. The girls' room was on the opposite side of the living room so I couldn't hear them giggling at night and they couldn't hear me. Of course, they have the firm, comfy Marriott beds in each room. I gave them the king sized bed and stayed in the room with the queen. Besides a tiny kitchen, there is a table with two comfy chairs, a desk with a swivel chair, and a couch that apparently folds out to make a bed. Seats two easily, three if you like each other. All three rooms had flat screen TV's in them.We used this hotel as a jumping off place to go to the Dallas Zoo and the Aquarium (A MUST!), as well as the JFK Museum. They were all about thirty minutes away. There are also restaurants and the big Irving Mall nearby, with a movie theater.The girls also tried both the indoor pool at our hotel (saltwater) and the outdoor pool at the sister Courtyard Marriott next door. Both were smallish, but not many people were swimming. The air conditioner worked really well. We felt very comfortable the whole time we were there, and safe.Now for a few negatives. There was road noise, as you are on a big highway. I always bring a sound machine with me, so not a problem for me. And the girls didn't notice it at all. I'm a light sleeper. Which is why the blinking light in the smoke detector above the bed drove me nuts each night. I learned to cover my head with the sheets. We did hear airplanes, but not until Sunday.There were no paper towels in the room, but when I called the front desk, they suggested we come get napkins from the coffee area. They are the big fancy serviettes you usually save for parties. We took plenty. There is fancy Paul Mitchell shampoo (3) and conditioner for the shower, but no shower cap or lotion, so bring your own. Both bathrooms in this suite had railings and seats in the tub for handicapped accessibility. My seat was stuck in a 45 degree angle and wouldn't go up or down. Not a problem for me because I only take showers and it was on the last half of the tub. There is a phone in each bathroom, too, in case someone gets into trouble. I did see several people who looked like they were patients coming to Dallas to get medical care. All in all, a fabulous hotel! I asked what the longest is that anyone has stayed there and the front desk staff said 380 days. I can see why. Very comfortable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r205951891-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>205951891</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>Mpaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a beautiful room.  For the price of a regular hotel you get double the amenities.  Staff was extra helpful and breakfast was exactly what I was looking for with my family.  Quiet, clean, spacious, free wifi what more can you ask for.  Oh and they also have a printer and computer to help with printing your airline boarding pass right in lobby.  This place goes above and beyond.  </t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r199479902-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>199479902</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>The 97% rating is well deserved for this hotel</t>
+  </si>
+  <si>
+    <t>I stayed there for two weeks in March while in town for training.  A deciding factor in choosing this hotel was the great rating it had here on Trip Advisor.  The hotel is in great shape overall and the rooms are better than I had hoped.  
+I had a King Studio suite and loved it.  This is the first time I have had a room look exactly like the picture on the website.  The room was spacious and well lit in all areas.  The bathroom area is not very big but I still found it to be very functional.  Decent closet and drawer space.  The desk area provided for a workspace was perfect for my needs and had several, conveniently placed power outlets and ethernet ports.  I had no problems with the free wifi signal.  I was very impressed with the well-stocked kitchen in the room (flatware, dishes, pots &amp; pans, etc) which also had a full size refrigerator with a working ice-maker.  
+If I have a single complaint about the room, it would only be the choice of available TV channels.  Even when out of town, I like a little downtime watching TV.  While certainly not a big deal, the available programming was weak at best, especially the Showtime channel.  
+As many others have commented, the staff at this hotel is great.  Every employee I encountered at the front desk was very pleasant, professional, and helpful, right down to...I stayed there for two weeks in March while in town for training.  A deciding factor in choosing this hotel was the great rating it had here on Trip Advisor.  The hotel is in great shape overall and the rooms are better than I had hoped.  I had a King Studio suite and loved it.  This is the first time I have had a room look exactly like the picture on the website.  The room was spacious and well lit in all areas.  The bathroom area is not very big but I still found it to be very functional.  Decent closet and drawer space.  The desk area provided for a workspace was perfect for my needs and had several, conveniently placed power outlets and ethernet ports.  I had no problems with the free wifi signal.  I was very impressed with the well-stocked kitchen in the room (flatware, dishes, pots &amp; pans, etc) which also had a full size refrigerator with a working ice-maker.  If I have a single complaint about the room, it would only be the choice of available TV channels.  Even when out of town, I like a little downtime watching TV.  While certainly not a big deal, the available programming was weak at best, especially the Showtime channel.  As many others have commented, the staff at this hotel is great.  Every employee I encountered at the front desk was very pleasant, professional, and helpful, right down to the young man who worked the desk after midnight during the week.  These folks are getting it right when it comes to customer service.The hotel provides free breakfast every day and free dinner Monday through Thursday.  The food is nothing special but it's also not bad, especially since it's free.  Set your expectations accordingly and you won't be disappointed with this nice option.  The hotel also has a small coin-operated laundromat with current appliances in good working order and they give you detergent and fabric softener for free at the front desk.  Another nice touch in my opinion.Overall, I was extremely happy with my experience at this hotel and would go out of my way to stay there again on future trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I stayed there for two weeks in March while in town for training.  A deciding factor in choosing this hotel was the great rating it had here on Trip Advisor.  The hotel is in great shape overall and the rooms are better than I had hoped.  
+I had a King Studio suite and loved it.  This is the first time I have had a room look exactly like the picture on the website.  The room was spacious and well lit in all areas.  The bathroom area is not very big but I still found it to be very functional.  Decent closet and drawer space.  The desk area provided for a workspace was perfect for my needs and had several, conveniently placed power outlets and ethernet ports.  I had no problems with the free wifi signal.  I was very impressed with the well-stocked kitchen in the room (flatware, dishes, pots &amp; pans, etc) which also had a full size refrigerator with a working ice-maker.  
+If I have a single complaint about the room, it would only be the choice of available TV channels.  Even when out of town, I like a little downtime watching TV.  While certainly not a big deal, the available programming was weak at best, especially the Showtime channel.  
+As many others have commented, the staff at this hotel is great.  Every employee I encountered at the front desk was very pleasant, professional, and helpful, right down to...I stayed there for two weeks in March while in town for training.  A deciding factor in choosing this hotel was the great rating it had here on Trip Advisor.  The hotel is in great shape overall and the rooms are better than I had hoped.  I had a King Studio suite and loved it.  This is the first time I have had a room look exactly like the picture on the website.  The room was spacious and well lit in all areas.  The bathroom area is not very big but I still found it to be very functional.  Decent closet and drawer space.  The desk area provided for a workspace was perfect for my needs and had several, conveniently placed power outlets and ethernet ports.  I had no problems with the free wifi signal.  I was very impressed with the well-stocked kitchen in the room (flatware, dishes, pots &amp; pans, etc) which also had a full size refrigerator with a working ice-maker.  If I have a single complaint about the room, it would only be the choice of available TV channels.  Even when out of town, I like a little downtime watching TV.  While certainly not a big deal, the available programming was weak at best, especially the Showtime channel.  As many others have commented, the staff at this hotel is great.  Every employee I encountered at the front desk was very pleasant, professional, and helpful, right down to the young man who worked the desk after midnight during the week.  These folks are getting it right when it comes to customer service.The hotel provides free breakfast every day and free dinner Monday through Thursday.  The food is nothing special but it's also not bad, especially since it's free.  Set your expectations accordingly and you won't be disappointed with this nice option.  The hotel also has a small coin-operated laundromat with current appliances in good working order and they give you detergent and fabric softener for free at the front desk.  Another nice touch in my opinion.Overall, I was extremely happy with my experience at this hotel and would go out of my way to stay there again on future trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r193307251-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>193307251</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Great hotel, nice amenities</t>
+  </si>
+  <si>
+    <t>We stayed here while going to watch the Cotton Bowl.  Check-in was quick, however the employee was hard to understand.  Great amenities, comfortable accommodations.  The rooms were very nice, great shower, comfortable room, nice TVs.  We liked having the kitchen.  Breakfast in the morning was quick and delicious.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r192178442-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>192178442</t>
+  </si>
+  <si>
+    <t>01/26/2014</t>
+  </si>
+  <si>
+    <t>Great for Cowboys Games</t>
+  </si>
+  <si>
+    <t>Came to town for a Cowboys game and stayed at this hotel due to proximity to Cowboys Stadium and price. Had a 1 bedroom that looked brand new, was spotless and incredibly comfortable. My brother was actually in awe when we opened the door. 1st because of how nice it looked 2nd because he couldn't believe the price. We missed breakfast in the morning, but the staff was so friendly and gave us some food recommendations for both breakfast and dinner. The kitchen came in handy especially when it was time to heat up and eat dinner left overs. Parking was plentiful even with a sold out hotel due to the Cowboys game. The location for us was perfect for game day and easy access back to the airport. We travel to Irving at least once a year for a Cowboys game and always stay at Marriott properties but I think this will be our go-to Marriott property going forward.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Came to town for a Cowboys game and stayed at this hotel due to proximity to Cowboys Stadium and price. Had a 1 bedroom that looked brand new, was spotless and incredibly comfortable. My brother was actually in awe when we opened the door. 1st because of how nice it looked 2nd because he couldn't believe the price. We missed breakfast in the morning, but the staff was so friendly and gave us some food recommendations for both breakfast and dinner. The kitchen came in handy especially when it was time to heat up and eat dinner left overs. Parking was plentiful even with a sold out hotel due to the Cowboys game. The location for us was perfect for game day and easy access back to the airport. We travel to Irving at least once a year for a Cowboys game and always stay at Marriott properties but I think this will be our go-to Marriott property going forward.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r191153271-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>191153271</t>
+  </si>
+  <si>
+    <t>01/17/2014</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful, everything you need</t>
+  </si>
+  <si>
+    <t>This is a Residence Inn with all of the perks, but run to the highest level of quality and friendliness.  I had misread their website (my fault) and thought that they did not have a shuttle  to/from airport, so I tried to rent a car at DFW.  I had a number of problems with the car rental.  I called the Marriott customer service desk. They put me through to the front desk and they sent a van just to get me at the rental terminal.  Made it in after the nightly reception had closed, but when one of the staff saw me checking in (somewhat bedraggled) they told me to come on in, they had leftovers and to put together a plate for dinner for myself.  Front desk was super nice.  No problems getting an extended time for check out. Room was very nice.  Very very clean.  Looked new.  Usual excellent kitchen area.  Everything you could ever need.  Free internet.  Large flat screen TV. If you need to stay near DFW, look no further.  This is where you want to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a Residence Inn with all of the perks, but run to the highest level of quality and friendliness.  I had misread their website (my fault) and thought that they did not have a shuttle  to/from airport, so I tried to rent a car at DFW.  I had a number of problems with the car rental.  I called the Marriott customer service desk. They put me through to the front desk and they sent a van just to get me at the rental terminal.  Made it in after the nightly reception had closed, but when one of the staff saw me checking in (somewhat bedraggled) they told me to come on in, they had leftovers and to put together a plate for dinner for myself.  Front desk was super nice.  No problems getting an extended time for check out. Room was very nice.  Very very clean.  Looked new.  Usual excellent kitchen area.  Everything you could ever need.  Free internet.  Large flat screen TV. If you need to stay near DFW, look no further.  This is where you want to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r186627783-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>186627783</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>Model Residence Inn Experience</t>
+  </si>
+  <si>
+    <t>I've had a run of really good Residence Inn stays recently.  This one was one of the best.  Fantastic location.   Very good staff service and meal/snack offerings.  Typically useful, clean and modern RI room.  And I heard someone at the front desk say the pool is saltwater, although I never got a chance to use it.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r185698774-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>185698774</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>Really enjoyed my 17 night stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 17 nights having moved to the US from the UK. This hotel provided everything I needed and more. The free shuttle bus enabled my to get around so much that I didn't need to hire a car until I picked up my new car, saving me a significant expense. My room was very comfortable and I used the gym and pool facilities daily. The laundry room was well equipped and inexpensive. The social hour was excellent, as was the complimentary breakfast.  The hotel's greatest asset is the staff who are fantastic - I cannot thank Victor and the rest of the team enough for making me feel at home, which was very much appreciated having moved country and started a new job at the same time. I met some really nice people whilst sitting by the fire pit enjoying a glass or two of the free wine or beer after work. The atmosphere was always friendly and relaxed. I would highly recommend this hotel to guests needing facilities suitable for a long stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for 17 nights having moved to the US from the UK. This hotel provided everything I needed and more. The free shuttle bus enabled my to get around so much that I didn't need to hire a car until I picked up my new car, saving me a significant expense. My room was very comfortable and I used the gym and pool facilities daily. The laundry room was well equipped and inexpensive. The social hour was excellent, as was the complimentary breakfast.  The hotel's greatest asset is the staff who are fantastic - I cannot thank Victor and the rest of the team enough for making me feel at home, which was very much appreciated having moved country and started a new job at the same time. I met some really nice people whilst sitting by the fire pit enjoying a glass or two of the free wine or beer after work. The atmosphere was always friendly and relaxed. I would highly recommend this hotel to guests needing facilities suitable for a long stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r185243786-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>185243786</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>We were walk-ins on Saturday 11/16. Nadia greeted us and quickly checked us in. I was in love with the room. Four people shared it with no troubles. Breakfast was great, a lot of selection. No noise trouble, the room was spotless. Will definitely be coming back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r182890056-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>182890056</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>stay 5 nights, they were great!</t>
+  </si>
+  <si>
+    <t>9/10 staff here were fabulous! They offer a shuttle all over, (within a 5 mile radius) @ no charge, to train stations, very pleasant to help. Walmart is within free shuttle if you need a few groceries, restaurant is closed except for the buffet  but I believe the sister hotel across the lot is full service.  The breakfast included was great, it's a buffet, lots of options, and evening buffet included Mon-Thur, but because no one informed us so we did miss the Thursday meal.  Place was SPOTLESS all over, rooms comfy, clean and well appointed with nice kitchen area's &amp; dishwasher in room. Big BBQ if you want to buy some steaks and cook them up for yourself. WE bought a pizza and forgot no oven in rooms, but the night staff cooked for us in the kitchen!! Nice fire pit area for the evenings.  Pool area clean and fresh, basketball court.  If you are in a conference room bring a warm sweater temperature varies all over.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>9/10 staff here were fabulous! They offer a shuttle all over, (within a 5 mile radius) @ no charge, to train stations, very pleasant to help. Walmart is within free shuttle if you need a few groceries, restaurant is closed except for the buffet  but I believe the sister hotel across the lot is full service.  The breakfast included was great, it's a buffet, lots of options, and evening buffet included Mon-Thur, but because no one informed us so we did miss the Thursday meal.  Place was SPOTLESS all over, rooms comfy, clean and well appointed with nice kitchen area's &amp; dishwasher in room. Big BBQ if you want to buy some steaks and cook them up for yourself. WE bought a pizza and forgot no oven in rooms, but the night staff cooked for us in the kitchen!! Nice fire pit area for the evenings.  Pool area clean and fresh, basketball court.  If you are in a conference room bring a warm sweater temperature varies all over.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r180403687-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>180403687</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Outstanding!</t>
+  </si>
+  <si>
+    <t>I am normally a Hilton man but I was very impressed by this hotel.  Property is in mint condition and the staff is outstanding.  Evening meal and happy hour were great.  I will most definitely stay here again.  Workout room was very nice.  My room was on the highway side but I did not hear any highway noise.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r179987428-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>179987428</t>
+  </si>
+  <si>
+    <t>10/06/2013</t>
+  </si>
+  <si>
+    <t>Wonderful Atmosphere and Convience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We just stayed at this hotel for the Notre a dame - - Arizona State football game weekend.  The one bedroom suite was wonderful, but it was the staff that really made the impression. At every juncture they were warm, friendly and helpful, including some very fine local restaurant recommendations </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r173268170-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>173268170</t>
+  </si>
+  <si>
+    <t>08/20/2013</t>
+  </si>
+  <si>
+    <t>Best Residence Inn so far....</t>
+  </si>
+  <si>
+    <t>I stay at Marriott about 50 nights a year, so I am a little picky. The rooms are by far the best at any residence inn and any Marriott in recent memory... marble counter tops, new everything, and well designed. Staff is super friendly and helpful, Breakfast is great, indoor pool, and on and on.  If you want a quick bite to eat, the Courtyard next door has a great bistro.The rate is unbelievably low (there seems to be a lot of competition in area, so supply could be factor).Did I say excellent?</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r172835837-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>172835837</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>Great spot for family stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here with our 2 kids (ages 3 months and 2 years) and LOVED it! We had a 1 bedroom suite which was perfect for our needs. The bathroom is separate from the bedroom, which I really appreciate for nap times and our kids' earlier bedtimes. We enjoyed one night of the social hour dinner (not available fri-sun) and enjoyed the entree, free beer &amp; wine, sodas, and salad. The breakfast has a great variety as well and suited the tastes of our picky 2 year old as well! There are also a couple of high chairs, which is so convenient. We found the room to be spacious and well-equipped, including a full stove with oven. Everything felt very new and CLEAN. The pool area was also clean with lots of comfortable seating and a nice sized pool. It's great that it's indoors and so we didn't have to go through the whole sunscreen process. All staff members were extremely polite and helpful. My only complaint would be that the couch isn't very comfortable - it's a hideaway bed and so it kind of slopes down. But that's minor compared to the quality of the room and we would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here with our 2 kids (ages 3 months and 2 years) and LOVED it! We had a 1 bedroom suite which was perfect for our needs. The bathroom is separate from the bedroom, which I really appreciate for nap times and our kids' earlier bedtimes. We enjoyed one night of the social hour dinner (not available fri-sun) and enjoyed the entree, free beer &amp; wine, sodas, and salad. The breakfast has a great variety as well and suited the tastes of our picky 2 year old as well! There are also a couple of high chairs, which is so convenient. We found the room to be spacious and well-equipped, including a full stove with oven. Everything felt very new and CLEAN. The pool area was also clean with lots of comfortable seating and a nice sized pool. It's great that it's indoors and so we didn't have to go through the whole sunscreen process. All staff members were extremely polite and helpful. My only complaint would be that the couch isn't very comfortable - it's a hideaway bed and so it kind of slopes down. But that's minor compared to the quality of the room and we would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r172742069-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>172742069</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel for Airport Access</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and clean. The rooms are on the small side and there really is not enough seating in the living area, but the upscale decor helps to make up for this. I was afraid of noise with planes going overhead about every 5 minutes, but once inside we had no issues. The staff was exceptionally friendly and always seemed to be smiling. I only wish the smoking area was a little farther from the basketball court. We would be glad to stay here again.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r161366450-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>161366450</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>Cozy, Great Staff, fair price...</t>
+  </si>
+  <si>
+    <t>Best choice for a business trip at DFW Area and/or if one is to attend training at CAE / Bombardier Training Center (in fact, less than 10 min drive). Comfortable &amp; clean rooms ( great- complimentary WiFi, impecable house-keeping, big flat screen tv, fully-equipped kitchen with large fridge, MW oven, dishwasher, electric cooktop, dishes / glasses / cups / silverware / utensils etc). The desk is ergonomic enough to work and/or study. Breakfast does not have a great variety, but everything on the buffet is fresh and of excelent taste &amp; quality. Staff could not be more courteous than they were, making one feel 100% at home. My sincere thanks to all of them, specially to the Front Desk team. The property has a good indoor swimming pool of reasonable size, as well as a well-equipped gym, just besides. Their Airport Shuttle picks you for check-in and takes you back upon checkout, and - though it is on demand - I never had to wait more than 10 mins, in either case. The hotel's restaurant serves the other meals as well and they also offer delivery options in the vicinities (try Vitto's; great italian food at your room's door; delivery is free, provided your order is at least US$ 15.00). That Residence Inn will certainly be my 1st choice for the next recurrent. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Best choice for a business trip at DFW Area and/or if one is to attend training at CAE / Bombardier Training Center (in fact, less than 10 min drive). Comfortable &amp; clean rooms ( great- complimentary WiFi, impecable house-keeping, big flat screen tv, fully-equipped kitchen with large fridge, MW oven, dishwasher, electric cooktop, dishes / glasses / cups / silverware / utensils etc). The desk is ergonomic enough to work and/or study. Breakfast does not have a great variety, but everything on the buffet is fresh and of excelent taste &amp; quality. Staff could not be more courteous than they were, making one feel 100% at home. My sincere thanks to all of them, specially to the Front Desk team. The property has a good indoor swimming pool of reasonable size, as well as a well-equipped gym, just besides. Their Airport Shuttle picks you for check-in and takes you back upon checkout, and - though it is on demand - I never had to wait more than 10 mins, in either case. The hotel's restaurant serves the other meals as well and they also offer delivery options in the vicinities (try Vitto's; great italian food at your room's door; delivery is free, provided your order is at least US$ 15.00). That Residence Inn will certainly be my 1st choice for the next recurrent. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r159990542-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>159990542</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Amazing Place</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel.  We had a bad airport problem and I needed a decent place to stay alone for the night.  Knowing that Marriott employees are always nice and helpful, I chose this hotel.  It exceeded my expectations.  The staff took such good care of me.  They made me feel special and took great care of me.  The room was beautiful, they have a salt water pool!  The shuttle was fabulous, quick and they used 2 shuttles when there was a large family, instead of cramming us all in one little van.  I had a nice breakfast and was whisked away to the airport.  I will stay here again anytime I get the chance!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel.  We had a bad airport problem and I needed a decent place to stay alone for the night.  Knowing that Marriott employees are always nice and helpful, I chose this hotel.  It exceeded my expectations.  The staff took such good care of me.  They made me feel special and took great care of me.  The room was beautiful, they have a salt water pool!  The shuttle was fabulous, quick and they used 2 shuttles when there was a large family, instead of cramming us all in one little van.  I had a nice breakfast and was whisked away to the airport.  I will stay here again anytime I get the chance!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r156185953-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>156185953</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>Perfect for larger families</t>
+  </si>
+  <si>
+    <t>My family (parents+ 4 kids) stayed at this hotel for a week in March while visiting the DFW area over Spring Break. With the2 separate bedrooms &amp; pullout couch (and full kitchen) it is a much better solution than cramming into a standard hotel room. This property appears new; it is very clean. It has a saltwater pool &amp; whirlpool, exercise room, and guest laundry facilities. The breakfast was wonderful- each day a regional 'special' with a host of standards (cereal, muffins, toast, bagels, oatmeal, scrambled eggs). The staff were all friendly &amp; helpful, and I do mean ALL - from the front desk to the cleaning personnel. I have one tiny complaint - the shower curtains are too short, requiring careful placement so you don't get water all over the floor. But other than that it was wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa H, Hotel Representative at Residence Inn Dallas DFW Airport South/Irving, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>My family (parents+ 4 kids) stayed at this hotel for a week in March while visiting the DFW area over Spring Break. With the2 separate bedrooms &amp; pullout couch (and full kitchen) it is a much better solution than cramming into a standard hotel room. This property appears new; it is very clean. It has a saltwater pool &amp; whirlpool, exercise room, and guest laundry facilities. The breakfast was wonderful- each day a regional 'special' with a host of standards (cereal, muffins, toast, bagels, oatmeal, scrambled eggs). The staff were all friendly &amp; helpful, and I do mean ALL - from the front desk to the cleaning personnel. I have one tiny complaint - the shower curtains are too short, requiring careful placement so you don't get water all over the floor. But other than that it was wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r145850360-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>145850360</t>
+  </si>
+  <si>
+    <t>11/20/2012</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good 1 bedroom suite.  Roomy and comfortable. Great breakfast variety. Love hot breakfasts which are limited at most hotels. The room was cleaned daily. Loved the kitchen and the nightly appetizers which were like meals to us. The staff was very accommodating to our needs. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r143491606-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>143491606</t>
+  </si>
+  <si>
+    <t>10/22/2012</t>
+  </si>
+  <si>
+    <t>Exceeded my expectations, great staff!</t>
+  </si>
+  <si>
+    <t>It was my first time staying at this property, since I usually stay at the larger Marriott when in the area, but this was quite a pleasant surprise. The staff just bent over backwards by being courteous, offering suggestions, remembering my name and needs, etc. The room was nice and the free breakfast was quite good as well. I stayed four nights and the courtesy shuttle takes you anywhere within 5 miles, which is a great help without a rental car.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r142734220-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>142734220</t>
+  </si>
+  <si>
+    <t>10/13/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I stopped in at this hotel for a couple of nights on a business trip into the Dallas Ft. Worth area.   I looked hard to find something wrong with this Hotel, but it was immaculate.  The staff was friendly, the room was very clean, the facilities were spotless as well.  On the fourth, and top, floor airport noise was not a factor at all.  I never noticed aircraft noise inside the room.   The noise I did here, was form the highway that is adjacent to the hotel.  While it was not enough to interrupt sleep, it was noticeable in the room, but not bothersome. Like most Residence Inns, a meal is served 4 nights a week, and breakfast is available every day.For out of towners, the most difficult problem to overcome is the idiosyncrasies of the Texas road system.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stopped in at this hotel for a couple of nights on a business trip into the Dallas Ft. Worth area.   I looked hard to find something wrong with this Hotel, but it was immaculate.  The staff was friendly, the room was very clean, the facilities were spotless as well.  On the fourth, and top, floor airport noise was not a factor at all.  I never noticed aircraft noise inside the room.   The noise I did here, was form the highway that is adjacent to the hotel.  While it was not enough to interrupt sleep, it was noticeable in the room, but not bothersome. Like most Residence Inns, a meal is served 4 nights a week, and breakfast is available every day.For out of towners, the most difficult problem to overcome is the idiosyncrasies of the Texas road system.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r140781300-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>140781300</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>Best part of our family trip to Six Flags!</t>
+  </si>
+  <si>
+    <t>After a long HOT day at 6 flags, this was hotel awesome to come "home" too.  There were 5 of us (2 adults and 3 kids).  Check in was kind of slow, but I think the guy was fairly new and he was all by himself. The lobby was very, very nice and modern.  When we got to the room we were blown away with how nice it looked, very good set up also.  There was plenty of room for all of us to sleep comfortably and the kitchen area was nice with a lot of counter space to put our food on, so it didn't come into our living area.  We got a very reasonable price for such high class accomidations.   It was like getting two rooms for one.  We will definitely stay there again the next time we go to 6 flags. It was a bit of a drive, but not far.  Great location close to the airport.  One downside, is I wish there were more restraunts nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Mike T, Manager at Residence Inn Dallas DFW Airport South/Irving, responded to this reviewResponded September 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2012</t>
+  </si>
+  <si>
+    <t>After a long HOT day at 6 flags, this was hotel awesome to come "home" too.  There were 5 of us (2 adults and 3 kids).  Check in was kind of slow, but I think the guy was fairly new and he was all by himself. The lobby was very, very nice and modern.  When we got to the room we were blown away with how nice it looked, very good set up also.  There was plenty of room for all of us to sleep comfortably and the kitchen area was nice with a lot of counter space to put our food on, so it didn't come into our living area.  We got a very reasonable price for such high class accomidations.   It was like getting two rooms for one.  We will definitely stay there again the next time we go to 6 flags. It was a bit of a drive, but not far.  Great location close to the airport.  One downside, is I wish there were more restraunts nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r132190724-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>132190724</t>
+  </si>
+  <si>
+    <t>06/17/2012</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel</t>
+  </si>
+  <si>
+    <t>We booked four rooms on a business trip to move closer to the airport from our hotel in Addison as we had an early flight.   The hotel is just pristine and loaded with amenities.   Due to the epic hailstorm last Wednesday, the staff told us to get to the airport early on Thursday as the airport would be slammed due to cancelled flights.   We caught the 5 a.m. hotel shuttle but the lady on duty offered us muffins and coffee prior to their regular breakfast and went the extra mile to take care of folks taking the early shuttle.   Great location, high value for your money, and you will be extremely pleased with this property.  On our next trip we may stay longer at this property due to its phenomenal service level.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike T, General Manager at Residence Inn Dallas DFW Airport South/Irving, responded to this reviewResponded June 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2012</t>
+  </si>
+  <si>
+    <t>We booked four rooms on a business trip to move closer to the airport from our hotel in Addison as we had an early flight.   The hotel is just pristine and loaded with amenities.   Due to the epic hailstorm last Wednesday, the staff told us to get to the airport early on Thursday as the airport would be slammed due to cancelled flights.   We caught the 5 a.m. hotel shuttle but the lady on duty offered us muffins and coffee prior to their regular breakfast and went the extra mile to take care of folks taking the early shuttle.   Great location, high value for your money, and you will be extremely pleased with this property.  On our next trip we may stay longer at this property due to its phenomenal service level.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r130326768-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>130326768</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel and Wonderful Staff</t>
+  </si>
+  <si>
+    <t>I stayed here at this Residence Inn during a quick turn around trip in Dallas.  It was close to the airport and had a complimentary shuttle to get back and forth.  This property is fairly new and you can tell the staff is proud of it.
+I arrived at about 5:00 pm and check in was very smooth.  The clerk informed me of dinner that was being served in the lobby starting at 5:30.  It was very handy as I did not have a vehicle and the food was good.
+My room was a studio suite which was quite roomy, especially for one person.  The room was clean and had everything I needed for one night.
+When I went down for dinner I met the General Manager at the desk who explained to me about the free internet.  He told me they had upgraded again for better service so wanted to know how my experience was after using the internet.  I shared my ease of use with the gal at checkout the next morning.
+I pre-arranged for a ride on the shuttle for my flight out of DFW.  That went smoothly as well.  They serve a breakfast that is included in the room rate but I left the hotel before breakfast was served.  The desk clerk offered to get me some fruit and a danish to go.  That was very thoughtful and I really appreciated it.
+This Residence Inn is...I stayed here at this Residence Inn during a quick turn around trip in Dallas.  It was close to the airport and had a complimentary shuttle to get back and forth.  This property is fairly new and you can tell the staff is proud of it.I arrived at about 5:00 pm and check in was very smooth.  The clerk informed me of dinner that was being served in the lobby starting at 5:30.  It was very handy as I did not have a vehicle and the food was good.My room was a studio suite which was quite roomy, especially for one person.  The room was clean and had everything I needed for one night.When I went down for dinner I met the General Manager at the desk who explained to me about the free internet.  He told me they had upgraded again for better service so wanted to know how my experience was after using the internet.  I shared my ease of use with the gal at checkout the next morning.I pre-arranged for a ride on the shuttle for my flight out of DFW.  That went smoothly as well.  They serve a breakfast that is included in the room rate but I left the hotel before breakfast was served.  The desk clerk offered to get me some fruit and a danish to go.  That was very thoughtful and I really appreciated it.This Residence Inn is great and I will stay there again anytime I have the opportunity to stay in the Dallas area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I stayed here at this Residence Inn during a quick turn around trip in Dallas.  It was close to the airport and had a complimentary shuttle to get back and forth.  This property is fairly new and you can tell the staff is proud of it.
+I arrived at about 5:00 pm and check in was very smooth.  The clerk informed me of dinner that was being served in the lobby starting at 5:30.  It was very handy as I did not have a vehicle and the food was good.
+My room was a studio suite which was quite roomy, especially for one person.  The room was clean and had everything I needed for one night.
+When I went down for dinner I met the General Manager at the desk who explained to me about the free internet.  He told me they had upgraded again for better service so wanted to know how my experience was after using the internet.  I shared my ease of use with the gal at checkout the next morning.
+I pre-arranged for a ride on the shuttle for my flight out of DFW.  That went smoothly as well.  They serve a breakfast that is included in the room rate but I left the hotel before breakfast was served.  The desk clerk offered to get me some fruit and a danish to go.  That was very thoughtful and I really appreciated it.
+This Residence Inn is...I stayed here at this Residence Inn during a quick turn around trip in Dallas.  It was close to the airport and had a complimentary shuttle to get back and forth.  This property is fairly new and you can tell the staff is proud of it.I arrived at about 5:00 pm and check in was very smooth.  The clerk informed me of dinner that was being served in the lobby starting at 5:30.  It was very handy as I did not have a vehicle and the food was good.My room was a studio suite which was quite roomy, especially for one person.  The room was clean and had everything I needed for one night.When I went down for dinner I met the General Manager at the desk who explained to me about the free internet.  He told me they had upgraded again for better service so wanted to know how my experience was after using the internet.  I shared my ease of use with the gal at checkout the next morning.I pre-arranged for a ride on the shuttle for my flight out of DFW.  That went smoothly as well.  They serve a breakfast that is included in the room rate but I left the hotel before breakfast was served.  The desk clerk offered to get me some fruit and a danish to go.  That was very thoughtful and I really appreciated it.This Residence Inn is great and I will stay there again anytime I have the opportunity to stay in the Dallas area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r128185273-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>128185273</t>
+  </si>
+  <si>
+    <t>04/19/2012</t>
+  </si>
+  <si>
+    <t>Very nice but small and noisy.</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel with my family. We enjoyed the hotel amenities including the pool and breakfast. The location is convenient to dfw airport and therefore between Dallas and Fort Worth. There is nothing within walking distance to this hotel and the freeway system is intimidating. My initial reaction to the room was that it is very nice and of course modern. But the space was really small. It is hard to have more than 2 people share that room. Last year I stayed at the embassy suites across the street and they have a way bigger bang for the buck. Huge rooms and cooked to order breakfast! I did not like the bathroom being open to the room because the lights and noise would be right next to someone who was trying to sleep. There was no bath tub and the water closet was really small too. The noises at night were bad. I could hear airplanes very loudly. I had to turn off my fridge because it growled all night. I also heard music during the day through the walls. I liked the tv and found it easy to use. There was not a lot of storage space for luggage and clothes. 
+The evening front desk agent was great. Mike was friendly and helped us pick the right places to eat. The morning guy who doesn't wear a name tag was unprofessional and uninterested. Overall I...I recently stayed at this hotel with my family. We enjoyed the hotel amenities including the pool and breakfast. The location is convenient to dfw airport and therefore between Dallas and Fort Worth. There is nothing within walking distance to this hotel and the freeway system is intimidating. My initial reaction to the room was that it is very nice and of course modern. But the space was really small. It is hard to have more than 2 people share that room. Last year I stayed at the embassy suites across the street and they have a way bigger bang for the buck. Huge rooms and cooked to order breakfast! I did not like the bathroom being open to the room because the lights and noise would be right next to someone who was trying to sleep. There was no bath tub and the water closet was really small too. The noises at night were bad. I could hear airplanes very loudly. I had to turn off my fridge because it growled all night. I also heard music during the day through the walls. I liked the tv and found it easy to use. There was not a lot of storage space for luggage and clothes. The evening front desk agent was great. Mike was friendly and helped us pick the right places to eat. The morning guy who doesn't wear a name tag was unprofessional and uninterested. Overall I would say this hotel was a decent value but again I would highly recommend the embassy suites across the street. My family all agreed we liked that hotel better even though it wasn't as new. MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel with my family. We enjoyed the hotel amenities including the pool and breakfast. The location is convenient to dfw airport and therefore between Dallas and Fort Worth. There is nothing within walking distance to this hotel and the freeway system is intimidating. My initial reaction to the room was that it is very nice and of course modern. But the space was really small. It is hard to have more than 2 people share that room. Last year I stayed at the embassy suites across the street and they have a way bigger bang for the buck. Huge rooms and cooked to order breakfast! I did not like the bathroom being open to the room because the lights and noise would be right next to someone who was trying to sleep. There was no bath tub and the water closet was really small too. The noises at night were bad. I could hear airplanes very loudly. I had to turn off my fridge because it growled all night. I also heard music during the day through the walls. I liked the tv and found it easy to use. There was not a lot of storage space for luggage and clothes. 
+The evening front desk agent was great. Mike was friendly and helped us pick the right places to eat. The morning guy who doesn't wear a name tag was unprofessional and uninterested. Overall I...I recently stayed at this hotel with my family. We enjoyed the hotel amenities including the pool and breakfast. The location is convenient to dfw airport and therefore between Dallas and Fort Worth. There is nothing within walking distance to this hotel and the freeway system is intimidating. My initial reaction to the room was that it is very nice and of course modern. But the space was really small. It is hard to have more than 2 people share that room. Last year I stayed at the embassy suites across the street and they have a way bigger bang for the buck. Huge rooms and cooked to order breakfast! I did not like the bathroom being open to the room because the lights and noise would be right next to someone who was trying to sleep. There was no bath tub and the water closet was really small too. The noises at night were bad. I could hear airplanes very loudly. I had to turn off my fridge because it growled all night. I also heard music during the day through the walls. I liked the tv and found it easy to use. There was not a lot of storage space for luggage and clothes. The evening front desk agent was great. Mike was friendly and helped us pick the right places to eat. The morning guy who doesn't wear a name tag was unprofessional and uninterested. Overall I would say this hotel was a decent value but again I would highly recommend the embassy suites across the street. My family all agreed we liked that hotel better even though it wasn't as new. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r126583482-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>126583482</t>
+  </si>
+  <si>
+    <t>03/24/2012</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Perfevt in everything, brand new, close to the airport but you do not listen to the airplanes, closest to the rental car return than you can imagine. NO BATHTUB BUT A GREAT SHOWER. SPACIOUS AND COMFY. By a freeway that takes you to all places.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike T, General Manager at Residence Inn Dallas DFW Airport South/Irving, responded to this reviewResponded March 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2012</t>
+  </si>
+  <si>
+    <t>Perfevt in everything, brand new, close to the airport but you do not listen to the airplanes, closest to the rental car return than you can imagine. NO BATHTUB BUT A GREAT SHOWER. SPACIOUS AND COMFY. By a freeway that takes you to all places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r126061033-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>126061033</t>
+  </si>
+  <si>
+    <t>03/13/2012</t>
+  </si>
+  <si>
+    <t>Wonderful Staff; Wonderful Experience</t>
+  </si>
+  <si>
+    <t>Just returned from a 6-night stay at the brand new Residence Inn South Irving near DFW airport.  From the moment we landed and called for their shuttle till we left six days later, we had the most wonderful experience.  General Manager Mike Testerman seemed to always be on site and he clearly sets a fine example for his staff.  Coming or going, there was always a warm hello from the Front Desk staff.  And, the entire staff went out of their way to accomodate our needs as a four day trip stretched into six.  The included breakfast offered a nice variety of food and the staff kept the buffet filled and neatly presented while clearing tables and checking that guests found what they wanted.  They even made sure that our pregnant daughter-in-law got some fruit she craved that wasn't on one day's menu! The lobby, the rooms, the pool area and all public areas were all spotless! We stayed two days in a very comfortable studio.  When our adult children joined us for a family event, we moved to a 2bed/2bath+sofa sleeper suite with kitchen and living area that was perfect for six adults.  And, when our homeward travel plans had to be modified, Manager Mike accomodated our additional lodging needs and made our travel changes painless!  He has a wonderful staff and we had a wonderful experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Just returned from a 6-night stay at the brand new Residence Inn South Irving near DFW airport.  From the moment we landed and called for their shuttle till we left six days later, we had the most wonderful experience.  General Manager Mike Testerman seemed to always be on site and he clearly sets a fine example for his staff.  Coming or going, there was always a warm hello from the Front Desk staff.  And, the entire staff went out of their way to accomodate our needs as a four day trip stretched into six.  The included breakfast offered a nice variety of food and the staff kept the buffet filled and neatly presented while clearing tables and checking that guests found what they wanted.  They even made sure that our pregnant daughter-in-law got some fruit she craved that wasn't on one day's menu! The lobby, the rooms, the pool area and all public areas were all spotless! We stayed two days in a very comfortable studio.  When our adult children joined us for a family event, we moved to a 2bed/2bath+sofa sleeper suite with kitchen and living area that was perfect for six adults.  And, when our homeward travel plans had to be modified, Manager Mike accomodated our additional lodging needs and made our travel changes painless!  He has a wonderful staff and we had a wonderful experience!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1948,4102 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>126</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>133</v>
+      </c>
+      <c r="X15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>158</v>
+      </c>
+      <c r="X19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>201</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>201</v>
+      </c>
+      <c r="O27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>207</v>
+      </c>
+      <c r="X27" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>221</v>
+      </c>
+      <c r="O29" t="s">
+        <v>126</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s">
+        <v>226</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>230</v>
+      </c>
+      <c r="J31" t="s">
+        <v>231</v>
+      </c>
+      <c r="K31" t="s">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s">
+        <v>233</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>227</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" t="s">
+        <v>236</v>
+      </c>
+      <c r="K32" t="s">
+        <v>237</v>
+      </c>
+      <c r="L32" t="s">
+        <v>238</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>239</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" t="s">
+        <v>242</v>
+      </c>
+      <c r="K33" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>239</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" t="s">
+        <v>249</v>
+      </c>
+      <c r="L34" t="s">
+        <v>250</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>251</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" t="s">
+        <v>257</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>261</v>
+      </c>
+      <c r="J36" t="s">
+        <v>262</v>
+      </c>
+      <c r="K36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L36" t="s">
+        <v>264</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>258</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J37" t="s">
+        <v>268</v>
+      </c>
+      <c r="K37" t="s">
+        <v>269</v>
+      </c>
+      <c r="L37" t="s">
+        <v>270</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>273</v>
+      </c>
+      <c r="J38" t="s">
+        <v>274</v>
+      </c>
+      <c r="K38" t="s">
+        <v>275</v>
+      </c>
+      <c r="L38" t="s">
+        <v>276</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>258</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>277</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>278</v>
+      </c>
+      <c r="J39" t="s">
+        <v>279</v>
+      </c>
+      <c r="K39" t="s">
+        <v>280</v>
+      </c>
+      <c r="L39" t="s">
+        <v>281</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>283</v>
+      </c>
+      <c r="J40" t="s">
+        <v>284</v>
+      </c>
+      <c r="K40" t="s">
+        <v>285</v>
+      </c>
+      <c r="L40" t="s">
+        <v>286</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>287</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>289</v>
+      </c>
+      <c r="J41" t="s">
+        <v>290</v>
+      </c>
+      <c r="K41" t="s">
+        <v>291</v>
+      </c>
+      <c r="L41" t="s">
+        <v>292</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>287</v>
+      </c>
+      <c r="O41" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>294</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>295</v>
+      </c>
+      <c r="J42" t="s">
+        <v>296</v>
+      </c>
+      <c r="K42" t="s">
+        <v>297</v>
+      </c>
+      <c r="L42" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>299</v>
+      </c>
+      <c r="O42" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>300</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>301</v>
+      </c>
+      <c r="J43" t="s">
+        <v>302</v>
+      </c>
+      <c r="K43" t="s">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s">
+        <v>304</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>305</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>308</v>
+      </c>
+      <c r="J44" t="s">
+        <v>309</v>
+      </c>
+      <c r="K44" t="s">
+        <v>310</v>
+      </c>
+      <c r="L44" t="s">
+        <v>311</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>312</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>314</v>
+      </c>
+      <c r="J45" t="s">
+        <v>315</v>
+      </c>
+      <c r="K45" t="s">
+        <v>316</v>
+      </c>
+      <c r="L45" t="s">
+        <v>317</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>318</v>
+      </c>
+      <c r="O45" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>321</v>
+      </c>
+      <c r="J46" t="s">
+        <v>322</v>
+      </c>
+      <c r="K46" t="s">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s">
+        <v>324</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>312</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>327</v>
+      </c>
+      <c r="J47" t="s">
+        <v>328</v>
+      </c>
+      <c r="K47" t="s">
+        <v>329</v>
+      </c>
+      <c r="L47" t="s">
+        <v>330</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>331</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>332</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>333</v>
+      </c>
+      <c r="J48" t="s">
+        <v>334</v>
+      </c>
+      <c r="K48" t="s">
+        <v>335</v>
+      </c>
+      <c r="L48" t="s">
+        <v>336</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>338</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>339</v>
+      </c>
+      <c r="J49" t="s">
+        <v>340</v>
+      </c>
+      <c r="K49" t="s">
+        <v>341</v>
+      </c>
+      <c r="L49" t="s">
+        <v>342</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>331</v>
+      </c>
+      <c r="O49" t="s">
+        <v>343</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>344</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>345</v>
+      </c>
+      <c r="J50" t="s">
+        <v>346</v>
+      </c>
+      <c r="K50" t="s">
+        <v>347</v>
+      </c>
+      <c r="L50" t="s">
+        <v>348</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>349</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>351</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>352</v>
+      </c>
+      <c r="J51" t="s">
+        <v>353</v>
+      </c>
+      <c r="K51" t="s">
+        <v>354</v>
+      </c>
+      <c r="L51" t="s">
+        <v>355</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>349</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>356</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>357</v>
+      </c>
+      <c r="J52" t="s">
+        <v>358</v>
+      </c>
+      <c r="K52" t="s">
+        <v>359</v>
+      </c>
+      <c r="L52" t="s">
+        <v>360</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>349</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>361</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>362</v>
+      </c>
+      <c r="J53" t="s">
+        <v>363</v>
+      </c>
+      <c r="K53" t="s">
+        <v>364</v>
+      </c>
+      <c r="L53" t="s">
+        <v>365</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>366</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>367</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>368</v>
+      </c>
+      <c r="J54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K54" t="s">
+        <v>370</v>
+      </c>
+      <c r="L54" t="s">
+        <v>371</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>366</v>
+      </c>
+      <c r="O54" t="s">
+        <v>67</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>373</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>374</v>
+      </c>
+      <c r="J55" t="s">
+        <v>375</v>
+      </c>
+      <c r="K55" t="s">
+        <v>376</v>
+      </c>
+      <c r="L55" t="s">
+        <v>377</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>378</v>
+      </c>
+      <c r="O55" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>379</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>380</v>
+      </c>
+      <c r="J56" t="s">
+        <v>381</v>
+      </c>
+      <c r="K56" t="s">
+        <v>382</v>
+      </c>
+      <c r="L56" t="s">
+        <v>383</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>384</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>386</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>387</v>
+      </c>
+      <c r="J57" t="s">
+        <v>388</v>
+      </c>
+      <c r="K57" t="s">
+        <v>389</v>
+      </c>
+      <c r="L57" t="s">
+        <v>390</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>384</v>
+      </c>
+      <c r="O57" t="s">
+        <v>126</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>392</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>393</v>
+      </c>
+      <c r="J58" t="s">
+        <v>394</v>
+      </c>
+      <c r="K58" t="s">
+        <v>395</v>
+      </c>
+      <c r="L58" t="s">
+        <v>396</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>397</v>
+      </c>
+      <c r="X58" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>400</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>401</v>
+      </c>
+      <c r="J59" t="s">
+        <v>402</v>
+      </c>
+      <c r="K59" t="s">
+        <v>403</v>
+      </c>
+      <c r="L59" t="s">
+        <v>404</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>406</v>
+      </c>
+      <c r="J60" t="s">
+        <v>407</v>
+      </c>
+      <c r="K60" t="s">
+        <v>408</v>
+      </c>
+      <c r="L60" t="s">
+        <v>409</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>410</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>411</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>412</v>
+      </c>
+      <c r="J61" t="s">
+        <v>413</v>
+      </c>
+      <c r="K61" t="s">
+        <v>414</v>
+      </c>
+      <c r="L61" t="s">
+        <v>415</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>410</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>417</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>418</v>
+      </c>
+      <c r="J62" t="s">
+        <v>419</v>
+      </c>
+      <c r="K62" t="s">
+        <v>420</v>
+      </c>
+      <c r="L62" t="s">
+        <v>421</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>422</v>
+      </c>
+      <c r="O62" t="s">
+        <v>67</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>423</v>
+      </c>
+      <c r="X62" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>426</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>427</v>
+      </c>
+      <c r="J63" t="s">
+        <v>428</v>
+      </c>
+      <c r="K63" t="s">
+        <v>429</v>
+      </c>
+      <c r="L63" t="s">
+        <v>430</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>422</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>431</v>
+      </c>
+      <c r="X63" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>434</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>435</v>
+      </c>
+      <c r="J64" t="s">
+        <v>436</v>
+      </c>
+      <c r="K64" t="s">
+        <v>437</v>
+      </c>
+      <c r="L64" t="s">
+        <v>438</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>439</v>
+      </c>
+      <c r="O64" t="s">
+        <v>126</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>431</v>
+      </c>
+      <c r="X64" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>441</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>442</v>
+      </c>
+      <c r="J65" t="s">
+        <v>443</v>
+      </c>
+      <c r="K65" t="s">
+        <v>444</v>
+      </c>
+      <c r="L65" t="s">
+        <v>445</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>447</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>448</v>
+      </c>
+      <c r="J66" t="s">
+        <v>449</v>
+      </c>
+      <c r="K66" t="s">
+        <v>450</v>
+      </c>
+      <c r="L66" t="s">
+        <v>451</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>452</v>
+      </c>
+      <c r="X66" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60432</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>455</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>456</v>
+      </c>
+      <c r="J67" t="s">
+        <v>457</v>
+      </c>
+      <c r="K67" t="s">
+        <v>458</v>
+      </c>
+      <c r="L67" t="s">
+        <v>459</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>460</v>
+      </c>
+      <c r="O67" t="s">
+        <v>67</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>452</v>
+      </c>
+      <c r="X67" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>461</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_653.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_653.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="528">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Terri S</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Andrea Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r508832977-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>J757P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r492022394-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Astrid1511</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r451168307-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Derek Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r448627297-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>James R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r447633838-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>This is a very nice, relatively new hotel.  The rooms are quite spacious - we had a two bedroom for a family of 4 for a period of 4 days and had plenty of room for all of us.  Nearly a full size 'fridge and a decent size kitchen allowed us to cook some meals and make sandwiches for the day trips. The salt water pool was nice and warm and the outdoor fire pit was a very nice touch in the evenings. The hotel is very close to the airport and the major roadways making it easier to get around the entire DFW area.  The hotel is close to the highway so you may want to request an odd-numbered room since the even numbered rooms face the highway. More</t>
   </si>
   <si>
+    <t>Ghost4314</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r421882267-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Bcooking</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r420007932-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>The breakfast eggs were excellent both mornings. We do not eat bacon or other pork and they were in the same dish with eggs.  Attendant was very helpful and served eggs from the kitchen.  Thank you.  Room was recently remodeled and clean.</t>
   </si>
   <si>
+    <t>Debbie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r412035814-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -330,6 +357,9 @@
     <t>We booked two rooms for the weekend for a concert at the Cowboys Stadium. Surprised that both rooms had huge seating area and two full bedrooms and bathrooms. Also a kitchen with all you need to cook...pots and pans and silverware. Only complaint was we wanted a high floor, and had second floor given to us. Was a bit noisy but not a problem. Staff very friendly . A really well done breakfast buffet  each morning . Also a shuttle to and from Airport. Nice place and very clean ! Would have given five stars .. But neighbors above us really noisy.  Otherwise a great place. And many good places to eat close by.More</t>
   </si>
   <si>
+    <t>Krysti W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r366313558-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -348,6 +378,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Timothy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r363159394-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -363,6 +396,9 @@
     <t>My wife and I stayed here for one night. We had an early flight and wanted to stay close to the rental car drop off. Only 5 minutes away! Hotel, room, hall, elevators were spotless and very clean. The service of the employees was top notch and very professional. I highly recommend this hotel.</t>
   </si>
   <si>
+    <t>97antoine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r338277107-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -381,6 +417,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Tony9876</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r333191960-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -399,6 +438,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Michelle B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r322129117-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -426,6 +468,9 @@
     <t>Know where to get the shuttle - LOWEST level of the airport as the staff does not provide good directions on where to get it. And gave me ten kinds of attitude when I "missed" the shuttle the first time it came around due to their vagueness. And when I ended up on another brand's shuttle (bless their hearts they still took me to my hotel) they gave me attitude upon check-in. And DON'T rely on their guess-timate for shuttle back to the airport. Give yourself plenty of time due to multiple drop-offs. Other than shuttle, horrible welcome at check-in, sleeping staff at check-out, it truly is a very nice (surprisingly nice) hotel.More</t>
   </si>
   <si>
+    <t>freefly618</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r309642565-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -444,6 +489,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>FAAglobetrotter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r293005425-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -462,6 +510,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Starr D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r291907520-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -475,6 +526,9 @@
   </si>
   <si>
     <t>The staff was so friendly . They had a great happy hour with free food and drinks . The beds were big and comfy . Super clean ! Would def stay again . In driving distance of six flags over texas and hurricane harbor . Safe area .</t>
+  </si>
+  <si>
+    <t>Wendy Y</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r287663482-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
@@ -511,6 +565,9 @@
 The only negative (and it's a biggie) is the lack of parking spots. The Residence Inn and sister property Courtyard share the minuscule parking lot. The spaces left in the evening back up to a highway that overlooks the edge of DFW airport. One night two vehicles were broken into (one of our families) and the back seats were stolen (not the iPads, wallets, etc). The hotel only offered an apology. There are signs posted to park at your own risk etc, but...My son's baseball traveled to Dallas for a World Series tournament. This hotel was listed on the tournament website. The Residence Inn had the larger rooms with full size refrigerators and a coin operated laundry room which we needed to wash uniforms.  The daily morning breakfast buffet was a nice bonus and varied day to day as did the evening snacks and wine / beer buffet. The kids enjoyed the s'mores night.Overall the Residence Inn is well maintained in the public spaces, and the rooms are clean as well. The front desk has rolls of quarters available to purchase which is more convenient than trying to find a bank. The rooms are spacious (we had 2 room suite) with comfortable bedding and good storage space in the bathroom areas. Housekeeping did a great job. I bought my own trash bags because the ones provided are flimsy, and we were eating in the room quite a bit. The only negative (and it's a biggie) is the lack of parking spots. The Residence Inn and sister property Courtyard share the minuscule parking lot. The spaces left in the evening back up to a highway that overlooks the edge of DFW airport. One night two vehicles were broken into (one of our families) and the back seats were stolen (not the iPads, wallets, etc). The hotel only offered an apology. There are signs posted to park at your own risk etc, but the lack of parking is definitely a problem. Otherwise I would rate this property 4 stars. More</t>
   </si>
   <si>
+    <t>Rhonda P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r282410389-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -526,6 +583,9 @@
     <t>Great stay at a wonderful hotel! I was pleasantly surprised by this Residence Inn. The property is immaculate. The rooms were well designed in layout and well appointed with good quality beds and linens. I couldn't believe it was so near the airport because it was really quiet and didn't have the appearance of high traffic even though I'm sure it is. Would definitely recommend and stay again!</t>
   </si>
   <si>
+    <t>Lindakhanh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r281973060-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -541,6 +601,9 @@
     <t xml:space="preserve">During a three day stay at this hotel, the breakfast was decent and the halls were fairy quiet. The only thing slightly negative I have to stay is I had a room on the first floor near the outside activities which hot pretty noisy. Also, the planes flying by were loud, but there is nothing the staff could do about it so I never complained. Overall, it was a nice stay. </t>
   </si>
   <si>
+    <t>pz1950</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r278740521-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -559,6 +622,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>James B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r263501164-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -580,6 +646,9 @@
     <t>Having stayed at many hotels on both the north and south side of DFW I have to say this is the best choice and best value option. The location is very close to the airport and their shuttle will quickly pick you up at your terminal. The staff are extremely friendly and make you feel right at home. The rooms are huge and include kitchenette with top appliances, a nice large desk to work on and couch. There is also a well appointed bathroom and good sized closet. I found the bed comfortable and was able to get a good nights sleep. The breakfast is complimentary and has a good selection.More</t>
   </si>
   <si>
+    <t>Wayne D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r261695175-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -598,6 +667,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>David G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r257542365-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -616,6 +688,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Cindy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r251285009-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -634,6 +709,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>kristine c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r249934968-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -658,6 +736,9 @@
     <t>This hotel is just across the highway from the Parking Spot -- so when flying out of DFW this is a great location. The room was very clean, nicely decorated and comfortable.The staff was friendly. Breakfast was good.Hotel Parking was free and close to door.Met all of our needs of a place to stay close to the airport parking.More</t>
   </si>
   <si>
+    <t>Ingrid R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r247277572-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -676,6 +757,9 @@
     <t>My family stayed for two days at this hotel. Because it was Christmas, the hotel was not too crowded. We had a really nice room with two TVs. My daughter enjoyed the pool and the breakfast had a nice selection including whole milk which is hard to find at most other hotels. Be careful using the GPS to find the hotel. We were taken to the other side of town but the front desk staff assisted us when we called. It is really close to the airport and car rental building of the airport. What is not great is this hotel shares property with the Courtyard so it's name does not show on some maps. We would stay here again.More</t>
   </si>
   <si>
+    <t>SendLoops</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r242484915-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -692,6 +776,9 @@
   </si>
   <si>
     <t>November 2014</t>
+  </si>
+  <si>
+    <t>PageantDirector</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r237171871-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
@@ -721,6 +808,9 @@
 Even for a business type hotel, I can give them this, maybe they don't hold events.  However, they are completely off base and the Sales Department needs extensive training. Comments like, "I'm done here, you can take it up with Marriott Corporate" are...So let's be clear, this review is not just about the hotel but the meeting sales staff too.I booked a last minute meeting at this hotel a few weeks ago.  For the most part, the entire weekend they were clueless. The room was good. It was new and freshly appointed which is the heartbreak of this review. I don't like to leave bad reviews.Sales Staff - Awful. They have NO clue how to deal with events.  The contract was not properly apportioned and they tried to tack on extra fees. Be forewarned, if you are a meeting event planner, they will bait and switch. Especially if they think you have money.  Be very very careful.  Quote one rate, charge another, tack on ridiculous fees. POOR conflict resolution. I still do not have my bill and read my reviews I do not say anything bad ever so this absolutely had to be a bad hotel.  Worst thing, my set-up was terrible and they put out no skirting and stained, yes stained tablecloths. Don't hold your wedding there unless you want grandma noticing random stains on your tables and keeping her legs crossed because again no skirting.  Even for a business type hotel, I can give them this, maybe they don't hold events.  However, they are completely off base and the Sales Department needs extensive training. Comments like, "I'm done here, you can take it up with Marriott Corporate" are not conflict resolution.  Or how about this one, we normally charge $1500 a day for this space, so you should be paying more after the fact even though you were quoted and agreed to $300. We have your credit card..so we'll just charge you what we think you should owe.  To this date, I have yet to get my settlement from this place.  Its ridiculous. Sleeping Room/Accommodations - Friendly, good night desk manager.  Came in late, effortlessly found my reservation.  Morning group not so much. Seemed to be more interested in guarding the breakfast area from people who came in but didn't stay there. Also, breakfast was awful. It was just bad. I cannot say enough about how I don't complain, but this was just not good. I actually skipped and went to McDonald's. They need to step up their meals if they are going to charge over $100 a night. Business Area - Out in the open, sat there patiently waiting to print a packing slip while a mom checked her Facebook for over an hour and let her kid play video games before I could print out my packing slip. Neither printer worked, finally a techie came over and performed magic and it started working again.  Later on I saw someone enduring the same struggle I had.  Boarding pass printer was low on ink.  But it worked.Overall Experience. This hotel is OK but don't hold an event there. And whatever you do, don't mention your income. I currently have a dispute on my card and a letter into Marriott Corporate and no...this will not go away.  I feel sorry for the chain owners here because I feel like they are going to have their meeting rooms dark or if they hold an event, their Sales Director is going to run off the next group. Maybe they just events one time.  Either way the entire hotel is overpriced, disorganized, and needs a lot of coaching.More</t>
   </si>
   <si>
+    <t>Shelly t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r235900602-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -736,6 +826,9 @@
     <t>I stayed at this hotel for one night during a business trip. The hotel is clean, fresh, accommodating. Provides a great small dinner meal and adequate breakfast, all complimentary.  My room was missing a blow dryer, the phone on the main room did not work, my key card wasn't properly activated and the internet access was unavailable for a bit. They resolved the issues and were very nice. Free shuttle to the airport, as well. Overall a nice stay, just a few details to work out.</t>
   </si>
   <si>
+    <t>amyz2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r231217673-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -754,6 +847,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>SE37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r229191807-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -772,6 +868,9 @@
     <t>This is a nice Residence Inn that is convenient to the aiport and freeways to get to downtown Dallas &amp; Ft Worth.  The beds were VERY comfortable and it was clean.  I would also like to mention that the staff is super friendly.  The only reason I give this hotel 4 stars is because the AC is so loud when it comes on, that even my earplugs couldn't drown out the noise which made for restless sleep.  If you don't need to turn the AC on then you will be golden - and maybe it was just our room?  Oh...and the breakfast was nice all 3 mornings.  Nothing fancy but filling and good - they had eggs, breakfast potatoes, biscuits, sausage/bacon, bagels/toast, cereal &amp; fruit.  This is a very reasonable hotel for it's amenities.More</t>
   </si>
   <si>
+    <t>Sheriff John T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r224903015-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -793,6 +892,9 @@
     <t>The staff, their support and my womderful surroundings made my in Dallas a great memory.  I stayed two weeks in the Marriott Residence Inn South and found it to be one of the nicest, but most understated extended stay hotels in the area.  The value for the cost of staying, was the most ecconomical I've found in many years.  Top that with the hospitality of the staff...I'll stay there again.Transportation was a non-issue.  They delivered and recovered us from our business commitments, as-well-as our evening meals.  A phenominal breakfast was provided at no additional cost and a social hour with a light meal waws also included in the overall cost of the hotel.  Wonderful facility with great staff.  Thank you all for the Texas hospitality!More</t>
   </si>
   <si>
+    <t>Mrs K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r218551016-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -814,6 +916,9 @@
     <t>Chose this location based on Trip Advisor reviews and proximity to DFW airport.  The rooms are nicely appointed, hotel staff was friendly and knowledgeable.  Breakfast was better on the weekend than Monday -- the Sat/Sun host made much better coffee.  My family traveled to Dallas, Plano and did lots of shopping in Irving during our three day stay. The biggest plus was the rooms were very quiet even though the hotel is so close to state highways, a turnpike and the airport.  Biggest minus is the parking lot.  it is shared with another hotel and staff members park (saw it with  my own eyes) in the 10-minute check in only spots for hours.  This makes check in difficult especially if you have luggage.More</t>
   </si>
   <si>
+    <t>lesliz64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r217900680-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -830,6 +935,9 @@
   </si>
   <si>
     <t>Stayed at this hotel while visiting both Dallas and Fort Worth. Since we were visiting colleges that were in both cities,  I wanted to find a hotel that would be accessible to all the metroplex had to offer and I stumbled upon this gem.  I had some Marriott reward points so I initially was looking for a Marriott but I was also willing to pay for my stay.  However, this hotel got such good reviews on TA, I decided to give it a try. My husband, 16 year old daughter and her friend were also on the trip and the room we stayed in was a suite that had a king in the bedroom and a queen sofa bed. The room arrangement gave everyone more privacy than if we had just opted for a conventional hotel room arrangement.  Both the sofabed and the king bed were very comfortable, towels were good and water pressure in the shower was excellent (something my husband judges hotels by). The first night we got ready to go to bed and we came up short a few pillows.  After a quick phone call, the pillows were delivered within 3 minutes. The breakfast buffet both mornings was outstanding.  Eggs, toast, bagels, sausage, potatoes, cereal, yogurt, fruit were all very tasty as were the texas shaped make-it-yourself belgian waffles.  The hotel looked new or like it had just been remodeled.  Everything was fresh and very modern.  I...Stayed at this hotel while visiting both Dallas and Fort Worth. Since we were visiting colleges that were in both cities,  I wanted to find a hotel that would be accessible to all the metroplex had to offer and I stumbled upon this gem.  I had some Marriott reward points so I initially was looking for a Marriott but I was also willing to pay for my stay.  However, this hotel got such good reviews on TA, I decided to give it a try. My husband, 16 year old daughter and her friend were also on the trip and the room we stayed in was a suite that had a king in the bedroom and a queen sofa bed. The room arrangement gave everyone more privacy than if we had just opted for a conventional hotel room arrangement.  Both the sofabed and the king bed were very comfortable, towels were good and water pressure in the shower was excellent (something my husband judges hotels by). The first night we got ready to go to bed and we came up short a few pillows.  After a quick phone call, the pillows were delivered within 3 minutes. The breakfast buffet both mornings was outstanding.  Eggs, toast, bagels, sausage, potatoes, cereal, yogurt, fruit were all very tasty as were the texas shaped make-it-yourself belgian waffles.  The hotel looked new or like it had just been remodeled.  Everything was fresh and very modern.  I could certainly see staying at this hotel for business for a week at a time.  It was a very comfortable place and I highly recommend it.More</t>
+  </si>
+  <si>
+    <t>kennyonline</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r217335323-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
@@ -856,6 +964,9 @@
  With keen attention to detail by the housekeeping staff (i.e., when changing sheets make sure you look at the actual mattress you're putting clean sheets on to determine...I chose this hotel after reading several reviews right here on tripadvisor, and being a Marriott member and planning to stay on points this looked to be the perfect hotel for me. The hotel was beautiful, and by Residence Inn standards, this one was near the top. The suite (#406) was just as nicely decorated as the hotel, it was perfectly clean and all appliances and furniture were in relatively new, excellent condition. I was completely satisfied with my suite, the hotel and my stay, and was planning to give this property raving reviews, until just prior to checkout I pulled the bed linen off and discovered a large 3ft x 2ft urine stain on the mattress, plus a smaller one probably 8 inches in diameter. I took photos and showed the on duty manager, who was thoroughly embarrassed and apologetic. Additionally, she returned all of the points I used for my stay.Although the urine stained mattress was completely disgusting, when looking at this property as a whole, and how satisfied I was with it prior to discovering the stain, I must give this hotel a "very good" rating, as it is quite beautiful, and I would stay there again (although I'd check my mattress prior to settling in next time). With keen attention to detail by the housekeeping staff (i.e., when changing sheets make sure you look at the actual mattress you're putting clean sheets on to determine if it's suitable for a guest), this hotel will be excellent. I definitely recommend this property for Irving/DFW Airport travelers.More</t>
   </si>
   <si>
+    <t>andyandsally</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r215375842-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -871,6 +982,9 @@
     <t>A good representation of Residence Inns. Breakfast and happy hours are good. Lobby comfortable, rooms very nice. No complaints, only compliments. If you need to be near DFW south exit this is not a bad choice. Did have a colleague stay at Embassy Suites across the way, he said it was horrible. Next time he will make his reservations sooner, before the place sells out. This is also a courtyard on the same property as the residence.There is a mall close by and there are plenty of restaurants. We did not utilize the hotel shuttle so I cannot comment on what services they provide.</t>
   </si>
   <si>
+    <t>Aprime2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r215076918-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -886,6 +1000,9 @@
     <t>This place is great!  Great floor plan, clean and well designed.  Felt like an upscale experience! Kids loved the suite.  Kitchen was very clean, well equipped and nicely designed. We'll definitely be back!</t>
   </si>
   <si>
+    <t>NikkiHP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r212469222-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -902,6 +1019,9 @@
   </si>
   <si>
     <t>June 2014</t>
+  </si>
+  <si>
+    <t>optique</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r208687412-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
@@ -928,6 +1048,9 @@
 The suite itself was very clean and had a great set-up. The girls' room was on the opposite side of the living room so I couldn't hear them giggling at night and they couldn't hear me. Of course, they have the firm, comfy Marriott beds in each room. I gave them the king sized...Brought my goddaughters to Dallas from Kansas so we could sightsee and hang out, and this place had a two-bedroom suite so I decided to try it. We were thrilled with this hotel!First, it has a full kitchen with dishes, silverware and pots/pans, and they even provide a dishwasher soap cube in case you need it. But they encourage you to leave your dishes in the sink and the maid cleans everything up and turns the dishwasher on for you each day... as well as cleaning the room. We were greeted very warmly when we checked in and asked if we needed help unloading the car. This hotel is literally five minutes from DFW Airport, and I saw a shuttle bus that goes with the hotel, in case you need it. Breakfast is included with the room each day. We had fun making our own waffles and putting whipped cream and nuts and berries on them. We also ate eggs, sausage, potatoes, English muffins, muffins, yogurt with granola, biscuits and gravy, and fruit throughout our stay. The food choices change up a little each day. The suite itself was very clean and had a great set-up. The girls' room was on the opposite side of the living room so I couldn't hear them giggling at night and they couldn't hear me. Of course, they have the firm, comfy Marriott beds in each room. I gave them the king sized bed and stayed in the room with the queen. Besides a tiny kitchen, there is a table with two comfy chairs, a desk with a swivel chair, and a couch that apparently folds out to make a bed. Seats two easily, three if you like each other. All three rooms had flat screen TV's in them.We used this hotel as a jumping off place to go to the Dallas Zoo and the Aquarium (A MUST!), as well as the JFK Museum. They were all about thirty minutes away. There are also restaurants and the big Irving Mall nearby, with a movie theater.The girls also tried both the indoor pool at our hotel (saltwater) and the outdoor pool at the sister Courtyard Marriott next door. Both were smallish, but not many people were swimming. The air conditioner worked really well. We felt very comfortable the whole time we were there, and safe.Now for a few negatives. There was road noise, as you are on a big highway. I always bring a sound machine with me, so not a problem for me. And the girls didn't notice it at all. I'm a light sleeper. Which is why the blinking light in the smoke detector above the bed drove me nuts each night. I learned to cover my head with the sheets. We did hear airplanes, but not until Sunday.There were no paper towels in the room, but when I called the front desk, they suggested we come get napkins from the coffee area. They are the big fancy serviettes you usually save for parties. We took plenty. There is fancy Paul Mitchell shampoo (3) and conditioner for the shower, but no shower cap or lotion, so bring your own. Both bathrooms in this suite had railings and seats in the tub for handicapped accessibility. My seat was stuck in a 45 degree angle and wouldn't go up or down. Not a problem for me because I only take showers and it was on the last half of the tub. There is a phone in each bathroom, too, in case someone gets into trouble. I did see several people who looked like they were patients coming to Dallas to get medical care. All in all, a fabulous hotel! I asked what the longest is that anyone has stayed there and the front desk staff said 380 days. I can see why. Very comfortable!More</t>
   </si>
   <si>
+    <t>Marie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r205951891-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -944,6 +1067,9 @@
   </si>
   <si>
     <t>May 2014</t>
+  </si>
+  <si>
+    <t>Aaron A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r199479902-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
@@ -973,6 +1099,9 @@
 As many others have commented, the staff at this hotel is great.  Every employee I encountered at the front desk was very pleasant, professional, and helpful, right down to...I stayed there for two weeks in March while in town for training.  A deciding factor in choosing this hotel was the great rating it had here on Trip Advisor.  The hotel is in great shape overall and the rooms are better than I had hoped.  I had a King Studio suite and loved it.  This is the first time I have had a room look exactly like the picture on the website.  The room was spacious and well lit in all areas.  The bathroom area is not very big but I still found it to be very functional.  Decent closet and drawer space.  The desk area provided for a workspace was perfect for my needs and had several, conveniently placed power outlets and ethernet ports.  I had no problems with the free wifi signal.  I was very impressed with the well-stocked kitchen in the room (flatware, dishes, pots &amp; pans, etc) which also had a full size refrigerator with a working ice-maker.  If I have a single complaint about the room, it would only be the choice of available TV channels.  Even when out of town, I like a little downtime watching TV.  While certainly not a big deal, the available programming was weak at best, especially the Showtime channel.  As many others have commented, the staff at this hotel is great.  Every employee I encountered at the front desk was very pleasant, professional, and helpful, right down to the young man who worked the desk after midnight during the week.  These folks are getting it right when it comes to customer service.The hotel provides free breakfast every day and free dinner Monday through Thursday.  The food is nothing special but it's also not bad, especially since it's free.  Set your expectations accordingly and you won't be disappointed with this nice option.  The hotel also has a small coin-operated laundromat with current appliances in good working order and they give you detergent and fabric softener for free at the front desk.  Another nice touch in my opinion.Overall, I was extremely happy with my experience at this hotel and would go out of my way to stay there again on future trips.More</t>
   </si>
   <si>
+    <t>Mark B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r193307251-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -991,6 +1120,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>NJGirlvTheWorld</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r192178442-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1012,6 +1144,9 @@
     <t>Came to town for a Cowboys game and stayed at this hotel due to proximity to Cowboys Stadium and price. Had a 1 bedroom that looked brand new, was spotless and incredibly comfortable. My brother was actually in awe when we opened the door. 1st because of how nice it looked 2nd because he couldn't believe the price. We missed breakfast in the morning, but the staff was so friendly and gave us some food recommendations for both breakfast and dinner. The kitchen came in handy especially when it was time to heat up and eat dinner left overs. Parking was plentiful even with a sold out hotel due to the Cowboys game. The location for us was perfect for game day and easy access back to the airport. We travel to Irving at least once a year for a Cowboys game and always stay at Marriott properties but I think this will be our go-to Marriott property going forward.More</t>
   </si>
   <si>
+    <t>Pokerroamer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r191153271-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1030,6 +1165,9 @@
     <t>This is a Residence Inn with all of the perks, but run to the highest level of quality and friendliness.  I had misread their website (my fault) and thought that they did not have a shuttle  to/from airport, so I tried to rent a car at DFW.  I had a number of problems with the car rental.  I called the Marriott customer service desk. They put me through to the front desk and they sent a van just to get me at the rental terminal.  Made it in after the nightly reception had closed, but when one of the staff saw me checking in (somewhat bedraggled) they told me to come on in, they had leftovers and to put together a plate for dinner for myself.  Front desk was super nice.  No problems getting an extended time for check out. Room was very nice.  Very very clean.  Looked new.  Usual excellent kitchen area.  Everything you could ever need.  Free internet.  Large flat screen TV. If you need to stay near DFW, look no further.  This is where you want to stay.More</t>
   </si>
   <si>
+    <t>bagnato1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r186627783-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1048,6 +1186,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>BAGirl64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r185698774-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1207,9 @@
     <t>I stayed here for 17 nights having moved to the US from the UK. This hotel provided everything I needed and more. The free shuttle bus enabled my to get around so much that I didn't need to hire a car until I picked up my new car, saving me a significant expense. My room was very comfortable and I used the gym and pool facilities daily. The laundry room was well equipped and inexpensive. The social hour was excellent, as was the complimentary breakfast.  The hotel's greatest asset is the staff who are fantastic - I cannot thank Victor and the rest of the team enough for making me feel at home, which was very much appreciated having moved country and started a new job at the same time. I met some really nice people whilst sitting by the fire pit enjoying a glass or two of the free wine or beer after work. The atmosphere was always friendly and relaxed. I would highly recommend this hotel to guests needing facilities suitable for a long stay.More</t>
   </si>
   <si>
+    <t>Rocio Abraham C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r185243786-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1228,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Amelia M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r182890056-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1105,6 +1252,9 @@
     <t>9/10 staff here were fabulous! They offer a shuttle all over, (within a 5 mile radius) @ no charge, to train stations, very pleasant to help. Walmart is within free shuttle if you need a few groceries, restaurant is closed except for the buffet  but I believe the sister hotel across the lot is full service.  The breakfast included was great, it's a buffet, lots of options, and evening buffet included Mon-Thur, but because no one informed us so we did miss the Thursday meal.  Place was SPOTLESS all over, rooms comfy, clean and well appointed with nice kitchen area's &amp; dishwasher in room. Big BBQ if you want to buy some steaks and cook them up for yourself. WE bought a pizza and forgot no oven in rooms, but the night staff cooked for us in the kitchen!! Nice fire pit area for the evenings.  Pool area clean and fresh, basketball court.  If you are in a conference room bring a warm sweater temperature varies all over.More</t>
   </si>
   <si>
+    <t>Jkren</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r180403687-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1120,6 +1270,9 @@
     <t>I am normally a Hilton man but I was very impressed by this hotel.  Property is in mint condition and the staff is outstanding.  Evening meal and happy hour were great.  I will most definitely stay here again.  Workout room was very nice.  My room was on the highway side but I did not hear any highway noise.</t>
   </si>
   <si>
+    <t>Merle W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r179987428-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1135,6 +1288,9 @@
     <t xml:space="preserve">We just stayed at this hotel for the Notre a dame - - Arizona State football game weekend.  The one bedroom suite was wonderful, but it was the staff that really made the impression. At every juncture they were warm, friendly and helpful, including some very fine local restaurant recommendations </t>
   </si>
   <si>
+    <t>TktPlease</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r173268170-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1153,6 +1309,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>jeselise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r172835837-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1171,6 +1330,9 @@
     <t>My husband and I stayed here with our 2 kids (ages 3 months and 2 years) and LOVED it! We had a 1 bedroom suite which was perfect for our needs. The bathroom is separate from the bedroom, which I really appreciate for nap times and our kids' earlier bedtimes. We enjoyed one night of the social hour dinner (not available fri-sun) and enjoyed the entree, free beer &amp; wine, sodas, and salad. The breakfast has a great variety as well and suited the tastes of our picky 2 year old as well! There are also a couple of high chairs, which is so convenient. We found the room to be spacious and well-equipped, including a full stove with oven. Everything felt very new and CLEAN. The pool area was also clean with lots of comfortable seating and a nice sized pool. It's great that it's indoors and so we didn't have to go through the whole sunscreen process. All staff members were extremely polite and helpful. My only complaint would be that the couch isn't very comfortable - it's a hideaway bed and so it kind of slopes down. But that's minor compared to the quality of the room and we would definitely stay here again.More</t>
   </si>
   <si>
+    <t>druggist87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r172742069-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1351,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Capt_Otero05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r161366450-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1210,6 +1375,9 @@
     <t>Best choice for a business trip at DFW Area and/or if one is to attend training at CAE / Bombardier Training Center (in fact, less than 10 min drive). Comfortable &amp; clean rooms ( great- complimentary WiFi, impecable house-keeping, big flat screen tv, fully-equipped kitchen with large fridge, MW oven, dishwasher, electric cooktop, dishes / glasses / cups / silverware / utensils etc). The desk is ergonomic enough to work and/or study. Breakfast does not have a great variety, but everything on the buffet is fresh and of excelent taste &amp; quality. Staff could not be more courteous than they were, making one feel 100% at home. My sincere thanks to all of them, specially to the Front Desk team. The property has a good indoor swimming pool of reasonable size, as well as a well-equipped gym, just besides. Their Airport Shuttle picks you for check-in and takes you back upon checkout, and - though it is on demand - I never had to wait more than 10 mins, in either case. The hotel's restaurant serves the other meals as well and they also offer delivery options in the vicinities (try Vitto's; great italian food at your room's door; delivery is free, provided your order is at least US$ 15.00). That Residence Inn will certainly be my 1st choice for the next recurrent. More</t>
   </si>
   <si>
+    <t>lannetrip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r159990542-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1228,6 +1396,9 @@
     <t>This is a wonderful hotel.  We had a bad airport problem and I needed a decent place to stay alone for the night.  Knowing that Marriott employees are always nice and helpful, I chose this hotel.  It exceeded my expectations.  The staff took such good care of me.  They made me feel special and took great care of me.  The room was beautiful, they have a salt water pool!  The shuttle was fabulous, quick and they used 2 shuttles when there was a large family, instead of cramming us all in one little van.  I had a nice breakfast and was whisked away to the airport.  I will stay here again anytime I get the chance!More</t>
   </si>
   <si>
+    <t>SfdbMD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r156185953-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1252,6 +1423,9 @@
     <t>My family (parents+ 4 kids) stayed at this hotel for a week in March while visiting the DFW area over Spring Break. With the2 separate bedrooms &amp; pullout couch (and full kitchen) it is a much better solution than cramming into a standard hotel room. This property appears new; it is very clean. It has a saltwater pool &amp; whirlpool, exercise room, and guest laundry facilities. The breakfast was wonderful- each day a regional 'special' with a host of standards (cereal, muffins, toast, bagels, oatmeal, scrambled eggs). The staff were all friendly &amp; helpful, and I do mean ALL - from the front desk to the cleaning personnel. I have one tiny complaint - the shower curtains are too short, requiring careful placement so you don't get water all over the floor. But other than that it was wonderful.More</t>
   </si>
   <si>
+    <t>Cheryl234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r145850360-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1267,6 +1441,9 @@
     <t xml:space="preserve">Very good 1 bedroom suite.  Roomy and comfortable. Great breakfast variety. Love hot breakfasts which are limited at most hotels. The room was cleaned daily. Loved the kitchen and the nightly appetizers which were like meals to us. The staff was very accommodating to our needs. </t>
   </si>
   <si>
+    <t>suett1_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r143491606-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1285,6 +1462,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Clayton K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r142734220-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1303,6 +1483,9 @@
     <t>I stopped in at this hotel for a couple of nights on a business trip into the Dallas Ft. Worth area.   I looked hard to find something wrong with this Hotel, but it was immaculate.  The staff was friendly, the room was very clean, the facilities were spotless as well.  On the fourth, and top, floor airport noise was not a factor at all.  I never noticed aircraft noise inside the room.   The noise I did here, was form the highway that is adjacent to the hotel.  While it was not enough to interrupt sleep, it was noticeable in the room, but not bothersome. Like most Residence Inns, a meal is served 4 nights a week, and breakfast is available every day.For out of towners, the most difficult problem to overcome is the idiosyncrasies of the Texas road system.More</t>
   </si>
   <si>
+    <t>wendyleigh22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r140781300-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1330,6 +1513,9 @@
     <t>After a long HOT day at 6 flags, this was hotel awesome to come "home" too.  There were 5 of us (2 adults and 3 kids).  Check in was kind of slow, but I think the guy was fairly new and he was all by himself. The lobby was very, very nice and modern.  When we got to the room we were blown away with how nice it looked, very good set up also.  There was plenty of room for all of us to sleep comfortably and the kitchen area was nice with a lot of counter space to put our food on, so it didn't come into our living area.  We got a very reasonable price for such high class accomidations.   It was like getting two rooms for one.  We will definitely stay there again the next time we go to 6 flags. It was a bit of a drive, but not far.  Great location close to the airport.  One downside, is I wish there were more restraunts nearby.More</t>
   </si>
   <si>
+    <t>Wilson54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r132190724-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1352,6 +1538,9 @@
   </si>
   <si>
     <t>We booked four rooms on a business trip to move closer to the airport from our hotel in Addison as we had an early flight.   The hotel is just pristine and loaded with amenities.   Due to the epic hailstorm last Wednesday, the staff told us to get to the airport early on Thursday as the airport would be slammed due to cancelled flights.   We caught the 5 a.m. hotel shuttle but the lady on duty offered us muffins and coffee prior to their regular breakfast and went the extra mile to take care of folks taking the early shuttle.   Great location, high value for your money, and you will be extremely pleased with this property.  On our next trip we may stay longer at this property due to its phenomenal service level.More</t>
+  </si>
+  <si>
+    <t>AZgolferMom</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r130326768-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
@@ -1385,6 +1574,9 @@
 This Residence Inn is...I stayed here at this Residence Inn during a quick turn around trip in Dallas.  It was close to the airport and had a complimentary shuttle to get back and forth.  This property is fairly new and you can tell the staff is proud of it.I arrived at about 5:00 pm and check in was very smooth.  The clerk informed me of dinner that was being served in the lobby starting at 5:30.  It was very handy as I did not have a vehicle and the food was good.My room was a studio suite which was quite roomy, especially for one person.  The room was clean and had everything I needed for one night.When I went down for dinner I met the General Manager at the desk who explained to me about the free internet.  He told me they had upgraded again for better service so wanted to know how my experience was after using the internet.  I shared my ease of use with the gal at checkout the next morning.I pre-arranged for a ride on the shuttle for my flight out of DFW.  That went smoothly as well.  They serve a breakfast that is included in the room rate but I left the hotel before breakfast was served.  The desk clerk offered to get me some fruit and a danish to go.  That was very thoughtful and I really appreciated it.This Residence Inn is great and I will stay there again anytime I have the opportunity to stay in the Dallas area.More</t>
   </si>
   <si>
+    <t>Mwar1004</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r128185273-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1405,6 +1597,9 @@
 The evening front desk agent was great. Mike was friendly and helped us pick the right places to eat. The morning guy who doesn't wear a name tag was unprofessional and uninterested. Overall I...I recently stayed at this hotel with my family. We enjoyed the hotel amenities including the pool and breakfast. The location is convenient to dfw airport and therefore between Dallas and Fort Worth. There is nothing within walking distance to this hotel and the freeway system is intimidating. My initial reaction to the room was that it is very nice and of course modern. But the space was really small. It is hard to have more than 2 people share that room. Last year I stayed at the embassy suites across the street and they have a way bigger bang for the buck. Huge rooms and cooked to order breakfast! I did not like the bathroom being open to the room because the lights and noise would be right next to someone who was trying to sleep. There was no bath tub and the water closet was really small too. The noises at night were bad. I could hear airplanes very loudly. I had to turn off my fridge because it growled all night. I also heard music during the day through the walls. I liked the tv and found it easy to use. There was not a lot of storage space for luggage and clothes. The evening front desk agent was great. Mike was friendly and helped us pick the right places to eat. The morning guy who doesn't wear a name tag was unprofessional and uninterested. Overall I would say this hotel was a decent value but again I would highly recommend the embassy suites across the street. My family all agreed we liked that hotel better even though it wasn't as new. More</t>
   </si>
   <si>
+    <t>M Elvira S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r126583482-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1427,6 +1622,9 @@
   </si>
   <si>
     <t>Perfevt in everything, brand new, close to the airport but you do not listen to the airplanes, closest to the rental car return than you can imagine. NO BATHTUB BUT A GREAT SHOWER. SPACIOUS AND COMFY. By a freeway that takes you to all places.More</t>
+  </si>
+  <si>
+    <t>WhereToNextMichigan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d2238423-r126061033-Residence_Inn_Dallas_DFW_Airport_South_Irving-Irving_Texas.html</t>
@@ -1952,43 +2150,47 @@
       <c r="A2" t="n">
         <v>60432</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>22799</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2002,50 +2204,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60432</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175658</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2059,50 +2265,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60432</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>175659</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2122,50 +2332,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60432</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>175660</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2179,50 +2393,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60432</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175661</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2242,50 +2460,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60432</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>2768</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2299,50 +2521,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60432</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175662</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2360,50 +2586,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60432</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175663</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2417,50 +2647,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60432</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>22655</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2474,50 +2708,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60432</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>175664</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2535,50 +2773,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60432</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>5098</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2592,50 +2834,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60432</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>175665</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2655,50 +2901,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60432</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>19432</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2712,50 +2962,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60432</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>2710</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2771,56 +3025,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="X15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60432</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>175666</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2834,50 +3092,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60432</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>92934</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2891,50 +3153,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60432</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175667</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2952,50 +3218,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60432</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>109670</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3007,47 +3277,51 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="X19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60432</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>35767</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -3066,41 +3340,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60432</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>175668</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
@@ -3119,50 +3397,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60432</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175669</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3182,50 +3464,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60432</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>7151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3239,50 +3525,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60432</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>39928</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3296,50 +3586,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>60432</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>5292</v>
+      </c>
+      <c r="C25" t="s">
+        <v>213</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="J25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3359,50 +3653,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60432</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>7721</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3422,50 +3720,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60432</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>175670</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3483,47 +3785,51 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="X27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="Y27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60432</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>66844</v>
+      </c>
+      <c r="C28" t="s">
+        <v>236</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="J28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="K28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
@@ -3542,50 +3848,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60432</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>175671</v>
+      </c>
+      <c r="C29" t="s">
+        <v>243</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="J29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="K29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="O29" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3599,50 +3909,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60432</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>175672</v>
+      </c>
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3662,50 +3976,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>60432</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>175673</v>
+      </c>
+      <c r="C31" t="s">
+        <v>258</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="J31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3719,50 +4037,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>60432</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>175674</v>
+      </c>
+      <c r="C32" t="s">
+        <v>264</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="J32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3782,50 +4104,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>60432</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>175675</v>
+      </c>
+      <c r="C33" t="s">
+        <v>271</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="J33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3843,50 +4169,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>60432</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>175676</v>
+      </c>
+      <c r="C34" t="s">
+        <v>278</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="J34" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="K34" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="L34" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -3906,50 +4236,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>60432</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>47697</v>
+      </c>
+      <c r="C35" t="s">
+        <v>286</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="J35" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="K35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3967,50 +4301,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>60432</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>175677</v>
+      </c>
+      <c r="C36" t="s">
+        <v>294</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="J36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="K36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4030,50 +4368,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>60432</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>175678</v>
+      </c>
+      <c r="C37" t="s">
+        <v>301</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="J37" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="K37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="L37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4087,50 +4429,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>60432</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>187</v>
+      </c>
+      <c r="C38" t="s">
+        <v>308</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="J38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="K38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4148,41 +4494,45 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>60432</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>175679</v>
+      </c>
+      <c r="C39" t="s">
+        <v>314</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="J39" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="K39" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -4211,50 +4561,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>60432</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>175680</v>
+      </c>
+      <c r="C40" t="s">
+        <v>320</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="J40" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="K40" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="L40" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4278,50 +4632,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>60432</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>175681</v>
+      </c>
+      <c r="C41" t="s">
+        <v>327</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="J41" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="K41" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="L41" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="O41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4345,50 +4703,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>60432</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>18841</v>
+      </c>
+      <c r="C42" t="s">
+        <v>334</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="J42" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="K42" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="O42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4402,50 +4764,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>60432</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>12323</v>
+      </c>
+      <c r="C43" t="s">
+        <v>341</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="J43" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="K43" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4469,50 +4835,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>60432</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>2433</v>
+      </c>
+      <c r="C44" t="s">
+        <v>349</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="J44" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="K44" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="L44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4536,50 +4906,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>60432</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>175682</v>
+      </c>
+      <c r="C45" t="s">
+        <v>356</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="J45" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="K45" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="O45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4603,50 +4977,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>60432</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>175683</v>
+      </c>
+      <c r="C46" t="s">
+        <v>364</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="J46" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="K46" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4670,50 +5048,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>60432</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>175684</v>
+      </c>
+      <c r="C47" t="s">
+        <v>371</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="J47" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="K47" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4737,41 +5119,45 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>60432</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>175685</v>
+      </c>
+      <c r="C48" t="s">
+        <v>378</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="J48" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="K48" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -4790,50 +5176,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>60432</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>175686</v>
+      </c>
+      <c r="C49" t="s">
+        <v>385</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="J49" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="K49" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="L49" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="O49" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4847,50 +5237,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>60432</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>28119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>392</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="J50" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="K50" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4914,50 +5308,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>60432</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>175687</v>
+      </c>
+      <c r="C51" t="s">
+        <v>400</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="J51" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="K51" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="L51" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -4981,50 +5379,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>60432</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>175688</v>
+      </c>
+      <c r="C52" t="s">
+        <v>406</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="J52" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="K52" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5038,50 +5440,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>60432</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>175689</v>
+      </c>
+      <c r="C53" t="s">
+        <v>412</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="J53" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="K53" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="L53" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5105,50 +5511,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>60432</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>175690</v>
+      </c>
+      <c r="C54" t="s">
+        <v>419</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="J54" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="K54" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="O54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5172,50 +5582,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>60432</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>93972</v>
+      </c>
+      <c r="C55" t="s">
+        <v>426</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="J55" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="K55" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="L55" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="O55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5239,50 +5653,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>60432</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>175691</v>
+      </c>
+      <c r="C56" t="s">
+        <v>433</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="J56" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="K56" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="L56" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5296,50 +5714,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>60432</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>175692</v>
+      </c>
+      <c r="C57" t="s">
+        <v>441</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="J57" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="K57" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="L57" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="O57" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5363,41 +5785,45 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>60432</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>175693</v>
+      </c>
+      <c r="C58" t="s">
+        <v>448</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="J58" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="K58" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="L58" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
@@ -5424,47 +5850,51 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="X58" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="Y58" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>60432</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>175694</v>
+      </c>
+      <c r="C59" t="s">
+        <v>457</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="J59" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="K59" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="L59" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
@@ -5493,50 +5923,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>60432</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>175695</v>
+      </c>
+      <c r="C60" t="s">
+        <v>463</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="J60" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="K60" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="L60" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="O60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5560,50 +5994,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60432</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>175696</v>
+      </c>
+      <c r="C61" t="s">
+        <v>470</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="J61" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="K61" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="L61" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5627,50 +6065,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>60432</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>175697</v>
+      </c>
+      <c r="C62" t="s">
+        <v>477</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="J62" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="K62" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="L62" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="O62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5692,56 +6134,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>423</v>
+        <v>484</v>
       </c>
       <c r="X62" t="s">
-        <v>424</v>
+        <v>485</v>
       </c>
       <c r="Y62" t="s">
-        <v>425</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>60432</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>175698</v>
+      </c>
+      <c r="C63" t="s">
+        <v>487</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="J63" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
       <c r="K63" t="s">
-        <v>429</v>
+        <v>491</v>
       </c>
       <c r="L63" t="s">
-        <v>430</v>
+        <v>492</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5763,56 +6209,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="X63" t="s">
-        <v>432</v>
+        <v>494</v>
       </c>
       <c r="Y63" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>60432</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>175699</v>
+      </c>
+      <c r="C64" t="s">
+        <v>496</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>435</v>
+        <v>498</v>
       </c>
       <c r="J64" t="s">
-        <v>436</v>
+        <v>499</v>
       </c>
       <c r="K64" t="s">
-        <v>437</v>
+        <v>500</v>
       </c>
       <c r="L64" t="s">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>439</v>
+        <v>502</v>
       </c>
       <c r="O64" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -5834,47 +6284,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="X64" t="s">
-        <v>432</v>
+        <v>494</v>
       </c>
       <c r="Y64" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>60432</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>68297</v>
+      </c>
+      <c r="C65" t="s">
+        <v>504</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="J65" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="K65" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="L65" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
@@ -5903,41 +6357,45 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>60432</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>175700</v>
+      </c>
+      <c r="C66" t="s">
+        <v>511</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>447</v>
+        <v>512</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>448</v>
+        <v>513</v>
       </c>
       <c r="J66" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="K66" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="L66" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
@@ -5964,56 +6422,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="X66" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="Y66" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>60432</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>175701</v>
+      </c>
+      <c r="C67" t="s">
+        <v>520</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="J67" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="K67" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="L67" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="O67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6035,13 +6497,13 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="X67" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="Y67" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
